--- a/to_standardize.xlsx
+++ b/to_standardize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="617">
   <si>
     <t>GUID</t>
   </si>
@@ -85,28 +85,37 @@
     <t>7ccb4659-02ab-4631-a16b-39186f0f0dc9</t>
   </si>
   <si>
+    <t>e77a4802-95a0-4d60-b181-13baa52a58b1</t>
+  </si>
+  <si>
+    <t>e29d0364-3b51-4a2e-9bc8-4f2108ecb05d</t>
+  </si>
+  <si>
     <t>7c7fe11c-4a84-42ce-a9da-3fd06d53a431</t>
   </si>
   <si>
-    <t>a1e74e35-d083-4c0a-9a96-65030a1c94f2</t>
-  </si>
-  <si>
-    <t>f021d57f-4e75-4505-90c7-035a3ab14819</t>
-  </si>
-  <si>
-    <t>6a140359-78c8-404a-81ff-a3de51352b10</t>
+    <t>fa7ab9cc-f6a8-4ee5-953f-1c1166aee4b0</t>
+  </si>
+  <si>
+    <t>4f91c64b-9964-44ff-b2d1-aeb35094ac21</t>
+  </si>
+  <si>
+    <t>5c4240cc-34fa-4e16-9f22-ccf0e903dba5</t>
   </si>
   <si>
     <t>26e11580-2dd8-432f-a2de-3065d9d9c0d9</t>
   </si>
   <si>
-    <t>463b761b-7945-456a-8746-60ccf84bf5a1</t>
-  </si>
-  <si>
-    <t>346b9c32-1b9e-4126-9acd-258ad28fa823</t>
-  </si>
-  <si>
-    <t>70dc96e0-ae29-41d1-92a7-4ea007e29dd5</t>
+    <t>d9414c1b-ab99-4b1d-94b5-7a48404aa7f4</t>
+  </si>
+  <si>
+    <t>9aa095aa-47d0-4c8d-a3aa-e85e9a7bc217</t>
+  </si>
+  <si>
+    <t>fa6042af-22ab-4694-a4d7-40a8dc14bfed</t>
+  </si>
+  <si>
+    <t>f95e2d26-ce17-4b49-8cfe-ca6d6ec5f85b</t>
   </si>
   <si>
     <t>be62336a-845d-42a1-9f76-f6452180e142</t>
@@ -130,6 +139,9 @@
     <t>9ad3072f-a742-4c71-ab67-decd1fd1e4ba</t>
   </si>
   <si>
+    <t>a1f4d530-9402-4050-9629-dd162cccbdd3</t>
+  </si>
+  <si>
     <t>3ab6a383-0ee7-4627-928d-3917c1cdef61</t>
   </si>
   <si>
@@ -187,9 +199,6 @@
     <t>42211fbf-14df-4430-8a00-f6b0d2cafe52</t>
   </si>
   <si>
-    <t>41f62f56-09b3-45c3-b9c4-271d8bd3c965</t>
-  </si>
-  <si>
     <t>aa8a622c-3aa2-4e6e-8a46-7b250a5971e3</t>
   </si>
   <si>
@@ -208,6 +217,12 @@
     <t>01712743-547a-47d1-b178-41818388b9b0</t>
   </si>
   <si>
+    <t>b2ce3d5b-b1ce-4d9b-8ecc-aa077c1d7f4b</t>
+  </si>
+  <si>
+    <t>a1bcc034-e05a-4efd-84ae-dc5d3314bffb</t>
+  </si>
+  <si>
     <t>12844df1-d660-407d-b8a4-95be5b308444</t>
   </si>
   <si>
@@ -217,6 +232,9 @@
     <t>33c49044-6703-499c-9350-50dc7593f74e</t>
   </si>
   <si>
+    <t>4af3a27c-21bd-4d20-9985-e1ff49df0147</t>
+  </si>
+  <si>
     <t>305844b9-b6f7-4c66-90de-84d7549c6c53</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
     <t>3f0e7a08-6b9d-4435-840c-c110279d1a1c</t>
   </si>
   <si>
+    <t>c4a8552f-1027-486a-957e-e63bd64bcbb6</t>
+  </si>
+  <si>
     <t>df83fdf7-5953-4253-be1a-ed8eb09231ab</t>
   </si>
   <si>
@@ -262,69 +283,6 @@
     <t>af0514cf-23e2-4756-86e3-e3dd7dda0029</t>
   </si>
   <si>
-    <t>c2d6ac20-d2c2-4e2e-ae3b-c4c9d61bd98f</t>
-  </si>
-  <si>
-    <t>805f9228-a2a1-407b-a271-6a3a6ebd0f9c</t>
-  </si>
-  <si>
-    <t>5988e36a-0a30-4a2f-b1aa-1abd37ecc2c6</t>
-  </si>
-  <si>
-    <t>9f39f0aa-a93e-4fb9-a369-879e80c6590d</t>
-  </si>
-  <si>
-    <t>0d735cf4-0958-417f-ba89-62355ea9666f</t>
-  </si>
-  <si>
-    <t>d6254611-608c-475b-a840-67ad94aecaa3</t>
-  </si>
-  <si>
-    <t>c08136a6-41fa-470d-a9a1-6b71c835b863</t>
-  </si>
-  <si>
-    <t>09c8ada4-8421-47d4-83dc-2fc92a772fa4</t>
-  </si>
-  <si>
-    <t>780e9059-0ac5-48cb-a583-68a3a8182c60</t>
-  </si>
-  <si>
-    <t>a4b8fc12-d353-47dd-a9a1-1043315351b4</t>
-  </si>
-  <si>
-    <t>68a58bcb-fe9a-481f-937d-bef27fd5d880</t>
-  </si>
-  <si>
-    <t>b165cdf5-6741-45cc-9fc3-f18c58e7f974</t>
-  </si>
-  <si>
-    <t>8802469c-5626-49ae-9d66-aafdf25e0685</t>
-  </si>
-  <si>
-    <t>d1efc1ab-7f5e-4872-96aa-c471889ff2df</t>
-  </si>
-  <si>
-    <t>b6dce96b-4a24-4ddc-ab3f-c99f7bd30c3b</t>
-  </si>
-  <si>
-    <t>1843253e-9a23-459a-a8e5-cfc40d9ae068</t>
-  </si>
-  <si>
-    <t>fdbc4a1d-9b03-4bc4-aa14-bf6439837481</t>
-  </si>
-  <si>
-    <t>c84285b9-ab30-4ae8-8114-fae5957753fe</t>
-  </si>
-  <si>
-    <t>ecbc53c2-6241-42a8-b2b1-0efeda7cde49</t>
-  </si>
-  <si>
-    <t>669a311f-ffb7-47c5-95d0-4af71f1153a5</t>
-  </si>
-  <si>
-    <t>84bfb00d-938d-4824-9c6f-3c79413cc52e</t>
-  </si>
-  <si>
     <t>dcf92daa-1040-4a90-bae3-395d17057722</t>
   </si>
   <si>
@@ -337,6 +295,9 @@
     <t>11c71507-482c-4774-8906-9c0231746561</t>
   </si>
   <si>
+    <t>e6e6aa2d-d43f-4f07-9645-a5c9fb798e44</t>
+  </si>
+  <si>
     <t>3eb4d8f4-8303-43ea-9189-2fba23f5eec5</t>
   </si>
   <si>
@@ -349,21 +310,57 @@
     <t>b40b543b-04c4-4b7b-87b9-47cf7d3df73b</t>
   </si>
   <si>
+    <t>08eac232-5fa4-4c29-ae73-f951c717779d</t>
+  </si>
+  <si>
     <t>6c56a06d-dd93-403c-9cf3-fb204e79a8c0</t>
   </si>
   <si>
     <t>181ac454-89b2-43e2-8bb1-53c3aab65c45</t>
   </si>
   <si>
+    <t>899b88bf-5cc0-42a9-b812-0966b48f907d</t>
+  </si>
+  <si>
+    <t>9ac61139-b954-43e0-a2ba-61972a54e3f7</t>
+  </si>
+  <si>
+    <t>0fedeb48-826a-46dc-ad5d-c248d0e29c70</t>
+  </si>
+  <si>
     <t>3ab36de5-1f9d-412b-8024-3d57c9445113</t>
   </si>
   <si>
+    <t>c81daec1-ef0d-40c8-b2ae-bd02cc16ea1e</t>
+  </si>
+  <si>
     <t>09f85cea-2ae4-44e7-91e1-3f18988cfe59</t>
   </si>
   <si>
+    <t>9b296cc3-a1b4-4644-80b3-e7e2601c48c0</t>
+  </si>
+  <si>
+    <t>b21e7b0c-4f93-4f70-8804-ed8c4ffd3d2b</t>
+  </si>
+  <si>
+    <t>16bbecd8-57c0-4172-9bf9-16516e937ce3</t>
+  </si>
+  <si>
+    <t>cc221578-5255-4fde-93d1-cc8893cbaacd</t>
+  </si>
+  <si>
+    <t>9ddad999-4a9a-44b3-b105-6287bbb9e520</t>
+  </si>
+  <si>
+    <t>15e56710-0734-44ba-bf3c-dad2db6e78f2</t>
+  </si>
+  <si>
     <t>ac435d7e-0503-4c31-9092-fce8405e1084</t>
   </si>
   <si>
+    <t>2cd72d21-d381-43db-8fb9-636e0b51feb2</t>
+  </si>
+  <si>
     <t>38be5a7f-fc4f-4ee3-b97b-47315f945123</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
     <t>1e2d7f15-a3ae-42c3-bea9-bb5da5082189</t>
   </si>
   <si>
+    <t>be89f790-04e0-47b6-8d59-147d2e1465b5</t>
+  </si>
+  <si>
     <t>bd1d621e-8ae1-48a3-bec7-c3922037f996</t>
   </si>
   <si>
@@ -538,6 +538,9 @@
     <t>d581df3b-d726-4253-95ed-b929f3336d08</t>
   </si>
   <si>
+    <t>ae9cecc8-3049-4fe8-a157-a7c691bc24ea</t>
+  </si>
+  <si>
     <t>28a8ecab-ba5e-4150-844f-4691acc201e3</t>
   </si>
   <si>
@@ -619,6 +622,9 @@
     <t>632e00cd-51a4-4463-b2a7-9bf9772be768</t>
   </si>
   <si>
+    <t>99798da5-7a9e-40e8-80ee-cf2b7cc5a193</t>
+  </si>
+  <si>
     <t>95171d02-e574-42eb-928a-3f7f7bd8ed5d</t>
   </si>
   <si>
@@ -667,6 +673,9 @@
     <t>c75d9185-7b0f-4ff2-8789-02d049a9d708</t>
   </si>
   <si>
+    <t>abebca79-66f4-4f81-b19f-78f107b1597f</t>
+  </si>
+  <si>
     <t>5ee82826-d23f-45f3-b876-d67fcaae6dc0</t>
   </si>
   <si>
@@ -682,7 +691,7 @@
     <t>ff2f0bc2-b550-439b-8526-f78bb24c304c</t>
   </si>
   <si>
-    <t>abebca79-66f4-4f81-b19f-78f107b1597f</t>
+    <t>58e9629c-bc84-4547-a405-5262c789381d</t>
   </si>
   <si>
     <t>fe3fefbc-572e-4338-8039-113c1f758ede</t>
@@ -691,6 +700,9 @@
     <t>6bfd71e4-6ed9-4507-ae64-769b9388d207</t>
   </si>
   <si>
+    <t>c9f4383b-b5d7-448e-99a3-ee6fb3bd0173</t>
+  </si>
+  <si>
     <t>c8b00552-f5ef-45b6-85a8-24d58cb5edf4</t>
   </si>
   <si>
@@ -712,10 +724,34 @@
     <t>e86b8a0a-48ac-43a6-a399-a1a69ca510e8</t>
   </si>
   <si>
-    <t>009a423f-1abf-40b6-8a79-326d3a665a99</t>
-  </si>
-  <si>
-    <t>964731de-19c1-4ca6-9411-9d13adaeb55c</t>
+    <t>800590ce-ff5a-4d4c-a327-4dc8887b68e2</t>
+  </si>
+  <si>
+    <t>56720855-8771-4251-bd11-c686e68de1f6</t>
+  </si>
+  <si>
+    <t>b79d4bd3-ccbe-4dd8-8d5b-dcf649646ff9</t>
+  </si>
+  <si>
+    <t>03e48366-6f3c-4e47-a3cb-6072b8675b3f</t>
+  </si>
+  <si>
+    <t>806eab25-e7ee-4601-8eef-698a295c885a</t>
+  </si>
+  <si>
+    <t>c94b712b-d328-4bab-ba27-1dd5b241b5a4</t>
+  </si>
+  <si>
+    <t>6f1f1e08-95eb-49f8-8268-c01438b2ab08</t>
+  </si>
+  <si>
+    <t>feeb20c3-da34-4409-a4b2-d9e497ddd9de</t>
+  </si>
+  <si>
+    <t>4ce5dc49-df28-4238-b140-36ff927a4a67</t>
+  </si>
+  <si>
+    <t>bfd2f04b-6dc7-479c-a770-bef782a17ade</t>
   </si>
   <si>
     <t>71962957-ce20-4575-a376-355a16c92347</t>
@@ -808,9 +844,15 @@
     <t>f2d087b4-2c33-480d-a308-a43039b867ae</t>
   </si>
   <si>
+    <t>38e2c39c-2518-4a43-9326-80e75aa4d1b2</t>
+  </si>
+  <si>
     <t>9f399c62-a466-4d6d-9999-12c693478b19</t>
   </si>
   <si>
+    <t>2877cd2a-61df-4d9f-aa8d-52db0aeff668</t>
+  </si>
+  <si>
     <t>1b984098-6c6a-426f-a864-a333de489b34</t>
   </si>
   <si>
@@ -832,9 +874,132 @@
     <t>d6c0f227-edcd-46f0-8778-7b434e763136</t>
   </si>
   <si>
+    <t>933cba5b-4b68-4dfc-9e0d-ed2ee7402f52</t>
+  </si>
+  <si>
     <t>82c93835-e5b4-407a-ae78-120b11988c82</t>
   </si>
   <si>
+    <t>972a5f67-da0b-43bb-9e50-7421224ec9bc</t>
+  </si>
+  <si>
+    <t>ba029cd6-77d0-40b6-83d2-126361779a7d</t>
+  </si>
+  <si>
+    <t>08f3f085-1ea4-4fda-9d46-0c828b722529</t>
+  </si>
+  <si>
+    <t>001c95f8-7754-41fc-aec6-c7c67622aa4a</t>
+  </si>
+  <si>
+    <t>5a99a916-1aa7-4e4e-aa50-8b7dadb23440</t>
+  </si>
+  <si>
+    <t>d5d201ca-be09-475c-b6f4-3aaa6360695d</t>
+  </si>
+  <si>
+    <t>003c36f8-bb7f-41a1-a421-b5603d13ae2b</t>
+  </si>
+  <si>
+    <t>5b059bac-422b-4539-8d19-3419d79f6450</t>
+  </si>
+  <si>
+    <t>9c18f684-6dce-4d5d-8a89-4002cb0490ba</t>
+  </si>
+  <si>
+    <t>98c32bff-143b-4cdf-be60-9d34f2e9a322</t>
+  </si>
+  <si>
+    <t>2bfb70f1-7994-43bb-b36b-5baf58bd0044</t>
+  </si>
+  <si>
+    <t>8b95157a-6557-45df-b6ce-1b230a0186c0</t>
+  </si>
+  <si>
+    <t>11fd9194-fabf-4708-86bc-1d6a37807797</t>
+  </si>
+  <si>
+    <t>dc07a450-ec24-4a89-9ce8-0353fc4ab1db</t>
+  </si>
+  <si>
+    <t>9028b7b6-3178-4246-b7ae-c50f0b4b4295</t>
+  </si>
+  <si>
+    <t>09580d92-c239-47d7-976e-1a29d8316a67</t>
+  </si>
+  <si>
+    <t>97b34409-c011-4886-a943-fdfde789cc4d</t>
+  </si>
+  <si>
+    <t>690a7604-50d8-4b4c-8359-355d4df27cc4</t>
+  </si>
+  <si>
+    <t>785a8448-3a71-470e-9039-18c8b3a3362c</t>
+  </si>
+  <si>
+    <t>e0c67050-0f83-458f-8e01-52004d1e6d07</t>
+  </si>
+  <si>
+    <t>d53e6fb0-8fe6-4c8f-a3eb-e339c6999602</t>
+  </si>
+  <si>
+    <t>fb2aaede-c15f-4cf2-b14c-f4f7269efd76</t>
+  </si>
+  <si>
+    <t>9da2f100-448c-4f16-b3c0-9dd64219eec7</t>
+  </si>
+  <si>
+    <t>9acea374-50f7-4d33-a174-f18e50a30de2</t>
+  </si>
+  <si>
+    <t>dddd7042-36ad-44c7-b44a-436fbe12c373</t>
+  </si>
+  <si>
+    <t>39d9b42d-535c-4b91-9827-7ad18cd3605a</t>
+  </si>
+  <si>
+    <t>50bd7a03-145d-4b66-91a5-706e37de0294</t>
+  </si>
+  <si>
+    <t>5b745ea0-21ce-4ef2-b3bd-485b4fd476bb</t>
+  </si>
+  <si>
+    <t>1440b3ca-8833-4a2b-bc0b-01d8e5535429</t>
+  </si>
+  <si>
+    <t>f73b37fa-c206-44fd-a871-2dbef5422743</t>
+  </si>
+  <si>
+    <t>5851640f-e0a6-4168-a96a-5d5ce2237bdf</t>
+  </si>
+  <si>
+    <t>377cf9c9-407b-4e24-b6b1-50c3bde20079</t>
+  </si>
+  <si>
+    <t>302fc96e-1e35-4f9a-965b-94de3b9faf08</t>
+  </si>
+  <si>
+    <t>7ca120e6-3dc8-48e5-956f-714a6dc05e1a</t>
+  </si>
+  <si>
+    <t>b0fa5ec0-240c-4c2f-942e-e22cf0cc7208</t>
+  </si>
+  <si>
+    <t>f41f85a6-f74a-415e-be5d-c53c98cdcbf4</t>
+  </si>
+  <si>
+    <t>e4e81896-cf05-49f1-8efd-fb6b77af74cd</t>
+  </si>
+  <si>
+    <t>d07f0f3d-c940-475c-b625-0cc221a3f766</t>
+  </si>
+  <si>
+    <t>3ea619bc-e8c6-4e0b-bbb0-5d3193a8efbc</t>
+  </si>
+  <si>
+    <t>cc8d610c-6e09-4411-b4f2-21227b28cdc1</t>
+  </si>
+  <si>
     <t>Frank</t>
   </si>
   <si>
@@ -859,234 +1024,294 @@
     <t>V.J.</t>
   </si>
   <si>
+    <t>Thomas</t>
+  </si>
+  <si>
     <t>T.</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
+    <t>Jogn</t>
+  </si>
+  <si>
+    <t>J.W</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
+    <t>K.I</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Katherin</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>G.B</t>
+  </si>
+  <si>
+    <t>G. B. Straley</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>V. C. Brink</t>
+  </si>
+  <si>
+    <t>V.C. Brink</t>
+  </si>
+  <si>
+    <t>J. Davidson</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Jame</t>
+  </si>
+  <si>
+    <t>James.</t>
+  </si>
+  <si>
+    <t>J.A.</t>
+  </si>
+  <si>
+    <t>Freek</t>
+  </si>
+  <si>
+    <t>I.</t>
+  </si>
+  <si>
+    <t>E.</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>W.</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>J. Pojar</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Wm. R. Taylor</t>
+  </si>
+  <si>
+    <t>W. R. Taylor</t>
+  </si>
+  <si>
+    <t>Wm.R. Taylor</t>
+  </si>
+  <si>
+    <t>Wm</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>F. J. R. Taylor</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Beryl</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Jeff.</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Adolf</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Oluna</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Wilfred</t>
+  </si>
+  <si>
+    <t>W.B. Schofield</t>
+  </si>
+  <si>
+    <t>W. B. Schofield</t>
+  </si>
+  <si>
+    <t>Corinne</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>O.</t>
+  </si>
+  <si>
+    <t>D.B.O. Saville</t>
+  </si>
+  <si>
+    <t>D. Saville</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Eli.</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Wiliam</t>
+  </si>
+  <si>
+    <t>Wm. Randolph Taylor</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>S. Lindstrom</t>
+  </si>
+  <si>
+    <t>S. S. Lindstrom</t>
+  </si>
+  <si>
+    <t>S.C. Lindstrom</t>
+  </si>
+  <si>
+    <t>S.C.</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Stephan</t>
+  </si>
+  <si>
+    <t>J.C. Oliveira</t>
+  </si>
+  <si>
+    <t>J. Oliveira</t>
+  </si>
+  <si>
+    <t>J. C. Oliveira</t>
+  </si>
+  <si>
+    <t>J. C Oliveira</t>
+  </si>
+  <si>
+    <t>J . Oliveira</t>
+  </si>
+  <si>
+    <t>J.L. Celstino</t>
+  </si>
+  <si>
+    <t>M.C.</t>
+  </si>
+  <si>
+    <t>M.C</t>
+  </si>
+  <si>
+    <t>M. C.</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Copeland</t>
+  </si>
+  <si>
     <t>M.</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>T. Taylor</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>J.</t>
-  </si>
-  <si>
-    <t>Jogn</t>
-  </si>
-  <si>
-    <t>J.W</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
-    <t>K.</t>
-  </si>
-  <si>
-    <t>K.I</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>Katherin</t>
-  </si>
-  <si>
-    <t>Gerald</t>
-  </si>
-  <si>
-    <t>G.</t>
-  </si>
-  <si>
-    <t>G.B</t>
-  </si>
-  <si>
-    <t>G. B. Straley</t>
-  </si>
-  <si>
-    <t>Vernon</t>
-  </si>
-  <si>
-    <t>R.</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>V. C. Brink</t>
-  </si>
-  <si>
-    <t>V.C. Brink</t>
-  </si>
-  <si>
-    <t>J. Davidson</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>A.F.</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>James.</t>
-  </si>
-  <si>
-    <t>J.A.</t>
-  </si>
-  <si>
-    <t>Freek</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>J. Pojar</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Wm. R. Taylor</t>
-  </si>
-  <si>
-    <t>W. R. Taylor</t>
-  </si>
-  <si>
-    <t>Wm.R. Taylor</t>
-  </si>
-  <si>
-    <t>Wm</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>F. J. R. Taylor</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>B.</t>
-  </si>
-  <si>
-    <t>Beryl</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Jeffery</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Jeff.</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>W.</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Curtis</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>E.</t>
-  </si>
-  <si>
-    <t>Adolf</t>
-  </si>
-  <si>
-    <t>Oluna</t>
-  </si>
-  <si>
-    <t>Corinne</t>
-  </si>
-  <si>
-    <t>D.</t>
-  </si>
-  <si>
-    <t>O.</t>
-  </si>
-  <si>
-    <t>D.B.O. Saville</t>
-  </si>
-  <si>
-    <t>D. Saville</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Eli.</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>L.</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>M.T.</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>I.</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Copeland</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -1135,10 +1360,19 @@
     <t>Taylor</t>
   </si>
   <si>
+    <t>Thomas M.C. Taylor</t>
+  </si>
+  <si>
     <t>T. M. Taylor</t>
   </si>
   <si>
-    <t>R.T Taylor</t>
+    <t>T.M.C. Taylor</t>
+  </si>
+  <si>
+    <t>T.M.C.Taylor</t>
+  </si>
+  <si>
+    <t>Thomas M. C. Taylor</t>
   </si>
   <si>
     <t>Eastham</t>
@@ -1180,12 +1414,24 @@
     <t>Brink</t>
   </si>
   <si>
+    <t>Student of Vernon C. Brink</t>
+  </si>
+  <si>
+    <t>A student of Vernon C. Brink</t>
+  </si>
+  <si>
     <t>Vernon C. Brink</t>
   </si>
   <si>
+    <t>Student of V. C. Brink</t>
+  </si>
+  <si>
     <t>Gerard Greichon for Vernon C. Brink</t>
   </si>
   <si>
+    <t>Vernon C. Brink's student</t>
+  </si>
+  <si>
     <t>Davidson</t>
   </si>
   <si>
@@ -1201,63 +1447,6 @@
     <t>John Davidson Jr.</t>
   </si>
   <si>
-    <t>Szczawinski</t>
-  </si>
-  <si>
-    <t>Adam F. Szczawinski</t>
-  </si>
-  <si>
-    <t>A.F. Szczawinski</t>
-  </si>
-  <si>
-    <t>A. Szczawinski</t>
-  </si>
-  <si>
-    <t>A.F Szczawinski</t>
-  </si>
-  <si>
-    <t>A. F. Szczawinski</t>
-  </si>
-  <si>
-    <t>A.F. Sczcawinski</t>
-  </si>
-  <si>
-    <t>Adam F. Szcawinski</t>
-  </si>
-  <si>
-    <t>Sczawinski</t>
-  </si>
-  <si>
-    <t>Adam Szczawinski</t>
-  </si>
-  <si>
-    <t>A. F. Szczawinski. M. Bell</t>
-  </si>
-  <si>
-    <t>Adam F. Szczawinksi</t>
-  </si>
-  <si>
-    <t>Szczawinki</t>
-  </si>
-  <si>
-    <t>A. Szcawinski</t>
-  </si>
-  <si>
-    <t>Szcawinski</t>
-  </si>
-  <si>
-    <t>Adam Szczawinksi</t>
-  </si>
-  <si>
-    <t>Szczawinksi</t>
-  </si>
-  <si>
-    <t>A.F. Szcawinski</t>
-  </si>
-  <si>
-    <t>A.F. Szczawinski et al</t>
-  </si>
-  <si>
     <t>Calder</t>
   </si>
   <si>
@@ -1273,18 +1462,42 @@
     <t>Freek Vrugtman</t>
   </si>
   <si>
+    <t>I. Vrugtman</t>
+  </si>
+  <si>
     <t>F. Vrugtman</t>
   </si>
   <si>
+    <t>Fred Vrugtman</t>
+  </si>
+  <si>
+    <t>F. Vrugtmann</t>
+  </si>
+  <si>
     <t>F Vrugtman</t>
   </si>
   <si>
     <t>F. Vrugman</t>
   </si>
   <si>
+    <t>V. Vrugtman</t>
+  </si>
+  <si>
+    <t>Freek Vrugtmann</t>
+  </si>
+  <si>
+    <t>J. Vrugtman</t>
+  </si>
+  <si>
     <t>McCalla</t>
   </si>
   <si>
+    <t>W.C. McCalla</t>
+  </si>
+  <si>
+    <t>W. C. McCalla</t>
+  </si>
+  <si>
     <t>Jim Pojar</t>
   </si>
   <si>
@@ -1315,6 +1528,9 @@
     <t>R. Taylor</t>
   </si>
   <si>
+    <t>and Roy L. Taylor</t>
+  </si>
+  <si>
     <t>R.L.Taylor</t>
   </si>
   <si>
@@ -1366,6 +1582,9 @@
     <t>J.M Saarela</t>
   </si>
   <si>
+    <t>Jeffery M. Saarela (2005)</t>
+  </si>
+  <si>
     <t>Jeff M. Saarela</t>
   </si>
   <si>
@@ -1417,6 +1636,9 @@
     <t>Bjork</t>
   </si>
   <si>
+    <t>Curtis R. Bjï¿½rk</t>
+  </si>
+  <si>
     <t>Curtis R. Bjork</t>
   </si>
   <si>
@@ -1450,6 +1672,9 @@
     <t>Adolf Ceska</t>
   </si>
   <si>
+    <t>Adolf O. Ceska</t>
+  </si>
+  <si>
     <t>A. Ceska</t>
   </si>
   <si>
@@ -1459,12 +1684,12 @@
     <t>O. Ceska</t>
   </si>
   <si>
-    <t>Adolf O. Ceska</t>
-  </si>
-  <si>
     <t>E.L. Taylor</t>
   </si>
   <si>
+    <t>L.E. Taylor</t>
+  </si>
+  <si>
     <t>L. Taylor</t>
   </si>
   <si>
@@ -1486,7 +1711,10 @@
     <t>Schofield</t>
   </si>
   <si>
-    <t>W. Schofield</t>
+    <t>Wilfred B. Schofield</t>
+  </si>
+  <si>
+    <t>P. Hamlyn. W. B. Schofield</t>
   </si>
   <si>
     <t>Selby</t>
@@ -1555,15 +1783,57 @@
     <t>Cronk</t>
   </si>
   <si>
+    <t>Quentin C. Cronk</t>
+  </si>
+  <si>
     <t>Quentin Cronk</t>
   </si>
   <si>
+    <t>Quentin C Cronk</t>
+  </si>
+  <si>
+    <t>Wm. Taylor</t>
+  </si>
+  <si>
+    <t>Lindstrom</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>Stephen Talbot</t>
+  </si>
+  <si>
+    <t>S. S. Talbot</t>
+  </si>
+  <si>
+    <t>Stephen J. Oliver</t>
+  </si>
+  <si>
+    <t>Steven J. Oliver</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>Stephan J. Oliver</t>
+  </si>
+  <si>
+    <t>Stepehn J. Oliver</t>
+  </si>
+  <si>
+    <t>S.J. Oliver</t>
+  </si>
+  <si>
+    <t>S. Oliver</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
     <t>Frank Lomer</t>
   </si>
   <si>
-    <t>Thomas M.C. Taylor</t>
-  </si>
-  <si>
     <t>William Copeland McCalla</t>
   </si>
   <si>
@@ -1576,9 +1846,6 @@
     <t>Erin R. Manton</t>
   </si>
   <si>
-    <t>L.E. Taylor</t>
-  </si>
-  <si>
     <t>Wilfred Schofield</t>
   </si>
   <si>
@@ -1586,6 +1853,18 @@
   </si>
   <si>
     <t>Eli Wilson</t>
+  </si>
+  <si>
+    <t>William Randolph Taylor</t>
+  </si>
+  <si>
+    <t>Sandra C. Lindstrom</t>
+  </si>
+  <si>
+    <t>Stephen S. Talbot</t>
+  </si>
+  <si>
+    <t>J.L. Celistino</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1971,13 +2250,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1985,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1996,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2010,10 +2289,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2021,16 +2300,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2038,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
       <c r="E7" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2049,16 +2328,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2066,10 +2345,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2077,10 +2356,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2088,10 +2367,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2099,10 +2378,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2110,10 +2389,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2121,10 +2400,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2132,13 +2411,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2146,10 +2425,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2157,10 +2436,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2168,10 +2447,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2179,13 +2458,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2193,30 +2472,27 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>281</v>
-      </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="E21" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2224,38 +2500,50 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>424</v>
+      </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
+      </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2263,16 +2551,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E25" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2280,10 +2568,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2291,27 +2579,27 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>337</v>
+      </c>
+      <c r="C27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" t="s">
+        <v>447</v>
       </c>
       <c r="E27" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C28" t="s">
-        <v>330</v>
-      </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="E28" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2319,10 +2607,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="E29" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2330,10 +2618,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2341,16 +2629,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="E31" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2358,27 +2646,21 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" t="s">
-        <v>330</v>
-      </c>
       <c r="D33" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2386,27 +2668,27 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>339</v>
+      </c>
+      <c r="C34" t="s">
+        <v>365</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>286</v>
-      </c>
       <c r="D35" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2414,16 +2696,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2431,16 +2713,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="E37" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2448,16 +2727,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="E38" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2465,38 +2744,47 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D39" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
+      <c r="B40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" t="s">
+        <v>365</v>
+      </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
+      <c r="B41" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>426</v>
+      </c>
       <c r="D41" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="E41" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2504,16 +2792,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2521,44 +2809,38 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>342</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="E43" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>290</v>
-      </c>
       <c r="D44" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="E44" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
-        <v>291</v>
-      </c>
-      <c r="C45" t="s">
-        <v>353</v>
-      </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="E45" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2566,13 +2848,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="C46" t="s">
+        <v>362</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="E46" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2580,16 +2865,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="E47" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2597,27 +2879,30 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="E48" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
+      <c r="B49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="E49" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2625,27 +2910,30 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
-      </c>
-      <c r="C50" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="E50" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" t="s">
+        <v>428</v>
+      </c>
       <c r="D51" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="E51" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2653,16 +2941,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="D52" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="E52" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2670,10 +2958,10 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="E53" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2681,30 +2969,27 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>346</v>
+      </c>
+      <c r="C54" t="s">
+        <v>362</v>
       </c>
       <c r="D54" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="E54" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" t="s">
-        <v>322</v>
-      </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="E55" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2712,30 +2997,27 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="C56" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="E56" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
-        <v>296</v>
-      </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2743,10 +3025,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>348</v>
+      </c>
+      <c r="C58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" t="s">
+        <v>463</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2754,10 +3042,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>347</v>
+      </c>
+      <c r="C59" t="s">
+        <v>429</v>
+      </c>
+      <c r="D59" t="s">
+        <v>463</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2765,16 +3059,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2782,38 +3073,38 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
-      </c>
-      <c r="C61" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="s">
-        <v>388</v>
+      <c r="B62" t="s">
+        <v>350</v>
       </c>
       <c r="E62" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
+      <c r="B63" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" t="s">
+        <v>353</v>
+      </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2821,27 +3112,21 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" t="s">
-        <v>276</v>
-      </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2849,52 +3134,49 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="E66" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
-        <v>301</v>
+      <c r="D67" t="s">
+        <v>468</v>
       </c>
       <c r="E67" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>302</v>
+      <c r="D68" t="s">
+        <v>354</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
-        <v>285</v>
-      </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2902,21 +3184,27 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="E70" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
+      <c r="B71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" t="s">
+        <v>331</v>
+      </c>
       <c r="D71" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="E71" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2924,13 +3212,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>331</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="E72" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2938,32 +3229,32 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="E73" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="D74" t="s">
-        <v>303</v>
+      <c r="B74" t="s">
+        <v>354</v>
       </c>
       <c r="E74" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" t="s">
-        <v>394</v>
+      <c r="B75" t="s">
+        <v>355</v>
       </c>
       <c r="E75" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2971,35 +3262,35 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>472</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" t="s">
-        <v>285</v>
-      </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="E77" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
-        <v>303</v>
+      <c r="D78" t="s">
+        <v>474</v>
       </c>
       <c r="E78" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3007,16 +3298,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>304</v>
-      </c>
-      <c r="C79" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="D79" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="E79" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3024,27 +3312,21 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="E80" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>305</v>
-      </c>
-      <c r="C81" t="s">
-        <v>274</v>
-      </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="E81" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3052,82 +3334,91 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="E82" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="D83" t="s">
-        <v>398</v>
+      <c r="B83" t="s">
+        <v>356</v>
       </c>
       <c r="E83" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>338</v>
+      </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="E84" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="D85" t="s">
-        <v>400</v>
+      <c r="B85" t="s">
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
+      <c r="B86" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
       <c r="D86" t="s">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E86" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
+      <c r="B87" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" t="s">
+        <v>391</v>
+      </c>
       <c r="D87" t="s">
-        <v>402</v>
+        <v>477</v>
       </c>
       <c r="E87" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>305</v>
-      </c>
-      <c r="C88" t="s">
-        <v>274</v>
-      </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="E88" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3135,32 +3426,44 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="E89" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
+      <c r="B90" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" t="s">
+        <v>391</v>
+      </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="E90" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
+      <c r="B91" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" t="s">
+        <v>391</v>
+      </c>
       <c r="D91" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="E91" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3168,44 +3471,38 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="E92" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
+      <c r="B93" t="s">
+        <v>361</v>
+      </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" t="s">
-        <v>274</v>
-      </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="E94" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3213,108 +3510,96 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="E95" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
-        <v>305</v>
-      </c>
-      <c r="C96" t="s">
-        <v>274</v>
-      </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
+      <c r="B97" t="s">
+        <v>329</v>
+      </c>
       <c r="D97" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="E97" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
+      <c r="B98" t="s">
+        <v>362</v>
+      </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="E98" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>306</v>
-      </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E99" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" t="s">
-        <v>305</v>
-      </c>
       <c r="D100" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="E100" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" t="s">
-        <v>305</v>
-      </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="E101" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
+      <c r="B102" t="s">
+        <v>363</v>
+      </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="E102" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3322,66 +3607,60 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="E103" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>308</v>
-      </c>
-      <c r="C104" t="s">
-        <v>305</v>
-      </c>
       <c r="D104" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="E104" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
-        <v>309</v>
-      </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
       <c r="E105" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
-        <v>310</v>
-      </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
+      <c r="B107" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" t="s">
+        <v>353</v>
+      </c>
       <c r="D107" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="E107" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3389,10 +3668,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3400,24 +3679,33 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>365</v>
+      </c>
+      <c r="C109" t="s">
+        <v>353</v>
       </c>
       <c r="D109" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="E109" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
+      <c r="B110" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" t="s">
+        <v>430</v>
+      </c>
       <c r="D110" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="E110" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3425,27 +3713,21 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
-        <v>311</v>
-      </c>
-      <c r="C112" t="s">
-        <v>356</v>
-      </c>
       <c r="D112" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
       <c r="E112" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3453,21 +3735,24 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="E113" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
+      <c r="B114" t="s">
+        <v>366</v>
+      </c>
       <c r="D114" t="s">
-        <v>313</v>
+        <v>495</v>
       </c>
       <c r="E114" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3475,80 +3760,77 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="E115" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
-        <v>286</v>
-      </c>
       <c r="D116" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="E116" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
+      <c r="B117" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" t="s">
+        <v>339</v>
+      </c>
       <c r="D117" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="E117" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
-        <v>312</v>
-      </c>
-      <c r="C118" t="s">
-        <v>286</v>
-      </c>
       <c r="D118" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="E118" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
+      <c r="B119" t="s">
+        <v>357</v>
+      </c>
       <c r="D119" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="E119" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" t="s">
-        <v>307</v>
-      </c>
       <c r="D120" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="E120" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3556,21 +3838,27 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>499</v>
       </c>
       <c r="E121" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
+      <c r="B122" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
       <c r="D122" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="E122" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3578,16 +3866,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="E123" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3595,16 +3883,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C124" t="s">
-        <v>286</v>
-      </c>
-      <c r="D124" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="E124" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3612,49 +3894,49 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="E125" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
-        <v>313</v>
+      <c r="D126" t="s">
+        <v>500</v>
       </c>
       <c r="E126" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>130</v>
       </c>
+      <c r="B127" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" t="s">
+        <v>393</v>
+      </c>
       <c r="D127" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="E127" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
-        <v>314</v>
-      </c>
-      <c r="C128" t="s">
-        <v>348</v>
-      </c>
       <c r="D128" t="s">
-        <v>372</v>
+        <v>501</v>
       </c>
       <c r="E128" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3662,63 +3944,63 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="E129" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>133</v>
       </c>
+      <c r="B130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" t="s">
+        <v>393</v>
+      </c>
       <c r="D130" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="E130" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131" t="s">
-        <v>299</v>
-      </c>
-      <c r="C131" t="s">
-        <v>348</v>
-      </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
       <c r="E131" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>135</v>
       </c>
+      <c r="B132" t="s">
+        <v>352</v>
+      </c>
       <c r="D132" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>136</v>
       </c>
-      <c r="B133" t="s">
-        <v>299</v>
-      </c>
       <c r="D133" t="s">
-        <v>372</v>
+        <v>504</v>
       </c>
       <c r="E133" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3726,13 +4008,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="D134" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E134" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3740,10 +4022,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="E135" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3751,10 +4033,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="E136" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3762,10 +4044,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="E137" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3773,10 +4055,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3784,16 +4066,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="D139" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E139" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3801,10 +4083,10 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="E140" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3812,16 +4094,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="D141" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E141" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3829,10 +4111,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="E142" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3840,10 +4122,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="E143" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3851,10 +4133,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="E144" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3862,16 +4144,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="C145" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="D145" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="E145" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3879,10 +4161,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="E146" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3890,10 +4172,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="E147" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3901,16 +4183,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="D148" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="E148" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3918,13 +4200,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="D149" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="E149" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3932,16 +4214,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="D150" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="E150" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3949,13 +4231,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="D151" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="E151" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3963,16 +4245,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="D152" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="E152" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3980,16 +4262,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="D153" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="E153" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3997,10 +4279,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="E154" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4008,13 +4290,13 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="D155" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="E155" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4022,10 +4304,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="E156" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4033,13 +4315,13 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="D157" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="E157" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4047,13 +4329,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="E158" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4061,10 +4343,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="E159" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4072,10 +4354,10 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="E160" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4083,13 +4365,13 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="D161" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="E161" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4097,13 +4379,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="E162" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4111,13 +4393,13 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="D163" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="E163" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4125,10 +4407,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="E164" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4136,16 +4418,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="C165" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="E165" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4153,10 +4435,10 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="E166" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4164,16 +4446,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="E167" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4181,10 +4463,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="E168" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4192,10 +4474,10 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="E169" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4203,30 +4485,24 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="D170" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="E170" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>174</v>
       </c>
-      <c r="B171" t="s">
-        <v>326</v>
-      </c>
-      <c r="C171" t="s">
-        <v>357</v>
-      </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="E171" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4234,16 +4510,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="C172" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="D172" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4251,44 +4527,44 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="C173" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="D173" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="E173" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>177</v>
       </c>
+      <c r="B174" t="s">
+        <v>382</v>
+      </c>
+      <c r="C174" t="s">
+        <v>431</v>
+      </c>
       <c r="D174" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="E174" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>178</v>
       </c>
-      <c r="B175" t="s">
-        <v>286</v>
-      </c>
-      <c r="C175" t="s">
-        <v>282</v>
-      </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="E175" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4296,10 +4572,13 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>329</v>
+        <v>339</v>
+      </c>
+      <c r="C176" t="s">
+        <v>431</v>
       </c>
       <c r="D176" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="E176" t="s">
         <v>517</v>
@@ -4309,11 +4588,14 @@
       <c r="A177" t="s">
         <v>180</v>
       </c>
+      <c r="B177" t="s">
+        <v>383</v>
+      </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="E177" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4321,10 +4603,10 @@
         <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="E178" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4332,52 +4614,46 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="E179" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>183</v>
       </c>
-      <c r="B180" t="s">
-        <v>281</v>
-      </c>
       <c r="D180" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="E180" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>184</v>
       </c>
+      <c r="B181" t="s">
+        <v>337</v>
+      </c>
       <c r="D181" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="E181" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>185</v>
       </c>
-      <c r="B182" t="s">
-        <v>281</v>
-      </c>
-      <c r="C182" t="s">
-        <v>281</v>
-      </c>
       <c r="D182" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="E182" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4385,16 +4661,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="C183" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D183" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="E183" t="s">
-        <v>518</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4402,27 +4678,33 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D184" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="E184" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>188</v>
       </c>
+      <c r="B185" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" t="s">
+        <v>339</v>
+      </c>
       <c r="D185" t="s">
-        <v>457</v>
+        <v>529</v>
       </c>
       <c r="E185" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4430,24 +4712,21 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>458</v>
+        <v>530</v>
       </c>
       <c r="E186" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>190</v>
       </c>
-      <c r="B187" t="s">
-        <v>331</v>
-      </c>
       <c r="D187" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="E187" t="s">
-        <v>460</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4455,13 +4734,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="D188" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="E188" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4469,24 +4748,27 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D189" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="E189" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>193</v>
       </c>
+      <c r="B190" t="s">
+        <v>385</v>
+      </c>
       <c r="D190" t="s">
-        <v>460</v>
+        <v>532</v>
       </c>
       <c r="E190" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4494,10 +4776,10 @@
         <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="E191" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4505,10 +4787,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="E192" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4516,27 +4798,21 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="E193" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>197</v>
       </c>
-      <c r="B194" t="s">
-        <v>333</v>
-      </c>
-      <c r="C194" t="s">
-        <v>337</v>
-      </c>
       <c r="D194" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="E194" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4544,55 +4820,61 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="D195" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="E195" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>199</v>
       </c>
+      <c r="B196" t="s">
+        <v>353</v>
+      </c>
+      <c r="C196" t="s">
+        <v>363</v>
+      </c>
       <c r="D196" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="E196" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>200</v>
       </c>
-      <c r="B197" t="s">
-        <v>334</v>
-      </c>
-      <c r="C197" t="s">
-        <v>299</v>
-      </c>
       <c r="D197" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="E197" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>201</v>
       </c>
+      <c r="B198" t="s">
+        <v>387</v>
+      </c>
+      <c r="C198" t="s">
+        <v>352</v>
+      </c>
       <c r="D198" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="E198" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4600,38 +4882,32 @@
         <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="E199" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>203</v>
       </c>
-      <c r="B200" t="s">
-        <v>334</v>
-      </c>
       <c r="D200" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="E200" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>204</v>
       </c>
-      <c r="B201" t="s">
-        <v>334</v>
-      </c>
       <c r="D201" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="E201" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4639,24 +4915,27 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="D202" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>206</v>
       </c>
+      <c r="B203" t="s">
+        <v>387</v>
+      </c>
       <c r="D203" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="E203" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4664,41 +4943,38 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="D204" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="E204" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>208</v>
       </c>
-      <c r="B205" t="s">
-        <v>335</v>
-      </c>
-      <c r="C205" t="s">
-        <v>341</v>
-      </c>
       <c r="D205" t="s">
-        <v>472</v>
+        <v>545</v>
       </c>
       <c r="E205" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>209</v>
       </c>
+      <c r="B206" t="s">
+        <v>388</v>
+      </c>
       <c r="D206" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="E206" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4706,30 +4982,27 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="C207" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="D207" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="E207" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>211</v>
       </c>
-      <c r="B208" t="s">
-        <v>286</v>
-      </c>
       <c r="D208" t="s">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="E208" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4737,16 +5010,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C209" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="E209" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4754,27 +5027,30 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>337</v>
-      </c>
-      <c r="C210" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D210" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="E210" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>214</v>
       </c>
+      <c r="B211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C211" t="s">
+        <v>352</v>
+      </c>
       <c r="D211" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="E211" t="s">
-        <v>519</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4782,13 +5058,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>338</v>
+        <v>363</v>
+      </c>
+      <c r="C212" t="s">
+        <v>352</v>
       </c>
       <c r="D212" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="E212" t="s">
-        <v>477</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4796,35 +5075,35 @@
         <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="E213" t="s">
-        <v>477</v>
+        <v>609</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>217</v>
       </c>
+      <c r="B214" t="s">
+        <v>390</v>
+      </c>
       <c r="D214" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="E214" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>218</v>
       </c>
-      <c r="B215" t="s">
-        <v>305</v>
-      </c>
       <c r="D215" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="E215" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4832,10 +5111,10 @@
         <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="E216" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4843,10 +5122,10 @@
         <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="E217" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4854,13 +5133,13 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="D218" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="E218" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4868,10 +5147,10 @@
         <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="E219" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4879,10 +5158,10 @@
         <v>223</v>
       </c>
       <c r="D220" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="E220" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4890,66 +5169,69 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>337</v>
-      </c>
-      <c r="C221" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="D221" t="s">
-        <v>372</v>
+        <v>550</v>
       </c>
       <c r="E221" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>225</v>
       </c>
+      <c r="B222" t="s">
+        <v>393</v>
+      </c>
+      <c r="C222" t="s">
+        <v>363</v>
+      </c>
       <c r="D222" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="E222" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>226</v>
       </c>
-      <c r="B223" t="s">
-        <v>285</v>
-      </c>
       <c r="D223" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="E223" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>227</v>
       </c>
+      <c r="B224" t="s">
+        <v>363</v>
+      </c>
+      <c r="C224" t="s">
+        <v>393</v>
+      </c>
       <c r="D224" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="E224" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>228</v>
       </c>
-      <c r="B225" t="s">
-        <v>286</v>
-      </c>
       <c r="D225" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="E225" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4957,10 +5239,10 @@
         <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="E226" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4968,27 +5250,24 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D227" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="E227" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>231</v>
       </c>
-      <c r="B228" t="s">
-        <v>286</v>
-      </c>
       <c r="D228" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="E228" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4996,13 +5275,13 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D229" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="E229" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5010,10 +5289,10 @@
         <v>233</v>
       </c>
       <c r="D230" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="E230" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5021,27 +5300,27 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
-      </c>
-      <c r="C231" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D231" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="E231" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>235</v>
       </c>
+      <c r="B232" t="s">
+        <v>339</v>
+      </c>
       <c r="D232" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="E232" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5049,13 +5328,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>340</v>
+        <v>394</v>
+      </c>
+      <c r="C233" t="s">
+        <v>376</v>
       </c>
       <c r="D233" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="E233" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5063,10 +5345,10 @@
         <v>237</v>
       </c>
       <c r="D234" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E234" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5074,10 +5356,10 @@
         <v>238</v>
       </c>
       <c r="D235" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="E235" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5085,30 +5367,27 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>300</v>
+        <v>365</v>
+      </c>
+      <c r="C236" t="s">
+        <v>376</v>
       </c>
       <c r="D236" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="E236" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>240</v>
       </c>
-      <c r="B237" t="s">
-        <v>300</v>
-      </c>
-      <c r="C237" t="s">
-        <v>286</v>
-      </c>
       <c r="D237" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="E237" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5116,10 +5395,10 @@
         <v>241</v>
       </c>
       <c r="D238" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="E238" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5127,49 +5406,49 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>341</v>
-      </c>
-      <c r="C239" t="s">
-        <v>358</v>
-      </c>
-      <c r="D239" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="E239" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>243</v>
       </c>
+      <c r="B240" t="s">
+        <v>394</v>
+      </c>
+      <c r="C240" t="s">
+        <v>376</v>
+      </c>
       <c r="D240" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="E240" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>244</v>
       </c>
-      <c r="D241" t="s">
-        <v>498</v>
+      <c r="B241" t="s">
+        <v>396</v>
       </c>
       <c r="E241" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>245</v>
       </c>
-      <c r="D242" t="s">
-        <v>499</v>
+      <c r="B242" t="s">
+        <v>395</v>
       </c>
       <c r="E242" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5177,16 +5456,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="C243" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D243" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="E243" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5194,21 +5473,24 @@
         <v>247</v>
       </c>
       <c r="D244" t="s">
-        <v>343</v>
+        <v>568</v>
       </c>
       <c r="E244" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>248</v>
       </c>
+      <c r="B245" t="s">
+        <v>397</v>
+      </c>
       <c r="D245" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="E245" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5216,10 +5498,10 @@
         <v>249</v>
       </c>
       <c r="D246" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="E246" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5227,10 +5509,10 @@
         <v>250</v>
       </c>
       <c r="D247" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="E247" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5238,69 +5520,69 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>322</v>
-      </c>
-      <c r="C248" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D248" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>252</v>
       </c>
+      <c r="B249" t="s">
+        <v>353</v>
+      </c>
+      <c r="C249" t="s">
+        <v>339</v>
+      </c>
       <c r="D249" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>253</v>
       </c>
-      <c r="B250" t="s">
-        <v>341</v>
-      </c>
-      <c r="C250" t="s">
-        <v>359</v>
-      </c>
       <c r="D250" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>254</v>
       </c>
+      <c r="B251" t="s">
+        <v>398</v>
+      </c>
+      <c r="C251" t="s">
+        <v>433</v>
+      </c>
       <c r="D251" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>255</v>
       </c>
-      <c r="B252" t="s">
-        <v>342</v>
-      </c>
       <c r="D252" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5308,27 +5590,21 @@
         <v>256</v>
       </c>
       <c r="D253" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>257</v>
       </c>
-      <c r="B254" t="s">
-        <v>341</v>
-      </c>
-      <c r="C254" t="s">
-        <v>360</v>
-      </c>
       <c r="D254" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5336,63 +5612,60 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>330</v>
+        <v>398</v>
+      </c>
+      <c r="C255" t="s">
+        <v>433</v>
       </c>
       <c r="D255" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>259</v>
       </c>
-      <c r="B256" t="s">
-        <v>330</v>
-      </c>
       <c r="D256" t="s">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>260</v>
       </c>
-      <c r="B257" t="s">
-        <v>343</v>
+      <c r="D257" t="s">
+        <v>577</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>261</v>
       </c>
-      <c r="B258" t="s">
-        <v>344</v>
+      <c r="D258" t="s">
+        <v>578</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>262</v>
       </c>
-      <c r="B259" t="s">
-        <v>345</v>
-      </c>
       <c r="D259" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="E259" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5400,38 +5673,44 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>337</v>
+        <v>376</v>
+      </c>
+      <c r="C260" t="s">
+        <v>433</v>
       </c>
       <c r="D260" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="E260" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>264</v>
       </c>
-      <c r="B261" t="s">
-        <v>346</v>
-      </c>
       <c r="D261" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="E261" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>265</v>
       </c>
+      <c r="B262" t="s">
+        <v>398</v>
+      </c>
+      <c r="C262" t="s">
+        <v>434</v>
+      </c>
       <c r="D262" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5439,10 +5718,10 @@
         <v>266</v>
       </c>
       <c r="D263" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="E263" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5450,30 +5729,24 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="D264" t="s">
-        <v>361</v>
+        <v>572</v>
       </c>
       <c r="E264" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>268</v>
       </c>
-      <c r="B265" t="s">
-        <v>347</v>
-      </c>
-      <c r="C265" t="s">
-        <v>361</v>
-      </c>
       <c r="D265" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="E265" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5481,16 +5754,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="C266" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="D266" t="s">
-        <v>361</v>
+        <v>572</v>
       </c>
       <c r="E266" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5498,16 +5771,13 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>347</v>
-      </c>
-      <c r="C267" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D267" t="s">
-        <v>361</v>
+        <v>572</v>
       </c>
       <c r="E267" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5515,24 +5785,743 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D268" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="D269" t="s">
-        <v>513</v>
+      <c r="B269" t="s">
+        <v>400</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" t="s">
+        <v>401</v>
+      </c>
+      <c r="E270" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
+        <v>402</v>
+      </c>
+      <c r="D271" t="s">
+        <v>584</v>
+      </c>
+      <c r="E271" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" t="s">
+        <v>363</v>
+      </c>
+      <c r="D272" t="s">
+        <v>584</v>
+      </c>
+      <c r="E272" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>391</v>
+      </c>
+      <c r="D273" t="s">
+        <v>584</v>
+      </c>
+      <c r="E273" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>403</v>
+      </c>
+      <c r="D274" t="s">
+        <v>584</v>
+      </c>
+      <c r="E274" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" t="s">
+        <v>404</v>
+      </c>
+      <c r="D275" t="s">
+        <v>584</v>
+      </c>
+      <c r="E275" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" t="s">
+        <v>585</v>
+      </c>
+      <c r="E276" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="D277" t="s">
+        <v>586</v>
+      </c>
+      <c r="E277" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" t="s">
+        <v>405</v>
+      </c>
+      <c r="D278" t="s">
+        <v>436</v>
+      </c>
+      <c r="E278" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" t="s">
+        <v>405</v>
+      </c>
+      <c r="C279" t="s">
+        <v>436</v>
+      </c>
+      <c r="D279" t="s">
+        <v>587</v>
+      </c>
+      <c r="E279" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" t="s">
+        <v>393</v>
+      </c>
+      <c r="C280" t="s">
+        <v>437</v>
+      </c>
+      <c r="D280" t="s">
+        <v>436</v>
+      </c>
+      <c r="E280" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" t="s">
+        <v>405</v>
+      </c>
+      <c r="C281" t="s">
+        <v>437</v>
+      </c>
+      <c r="D281" t="s">
+        <v>436</v>
+      </c>
+      <c r="E281" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" t="s">
+        <v>588</v>
+      </c>
+      <c r="E282" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283" t="s">
+        <v>589</v>
+      </c>
+      <c r="E283" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" t="s">
+        <v>590</v>
+      </c>
+      <c r="E284" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="D285" t="s">
+        <v>591</v>
+      </c>
+      <c r="E285" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" t="s">
+        <v>364</v>
+      </c>
+      <c r="D286" t="s">
+        <v>447</v>
+      </c>
+      <c r="E286" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287" t="s">
+        <v>592</v>
+      </c>
+      <c r="E287" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>407</v>
+      </c>
+      <c r="D288" t="s">
+        <v>447</v>
+      </c>
+      <c r="E288" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" t="s">
+        <v>408</v>
+      </c>
+      <c r="E289" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" t="s">
+        <v>409</v>
+      </c>
+      <c r="C290" t="s">
+        <v>353</v>
+      </c>
+      <c r="D290" t="s">
+        <v>593</v>
+      </c>
+      <c r="E290" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" t="s">
+        <v>410</v>
+      </c>
+      <c r="C291" t="s">
+        <v>353</v>
+      </c>
+      <c r="D291" t="s">
+        <v>593</v>
+      </c>
+      <c r="E291" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" t="s">
+        <v>409</v>
+      </c>
+      <c r="D292" t="s">
+        <v>593</v>
+      </c>
+      <c r="E292" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" t="s">
+        <v>410</v>
+      </c>
+      <c r="D293" t="s">
+        <v>593</v>
+      </c>
+      <c r="E293" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" t="s">
+        <v>410</v>
+      </c>
+      <c r="C294" t="s">
+        <v>353</v>
+      </c>
+      <c r="D294" t="s">
+        <v>593</v>
+      </c>
+      <c r="E294" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295" t="s">
+        <v>411</v>
+      </c>
+      <c r="E295" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" t="s">
+        <v>412</v>
+      </c>
+      <c r="E296" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" t="s">
+        <v>410</v>
+      </c>
+      <c r="C297" t="s">
+        <v>353</v>
+      </c>
+      <c r="D297" t="s">
+        <v>593</v>
+      </c>
+      <c r="E297" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298" t="s">
+        <v>411</v>
+      </c>
+      <c r="E298" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" t="s">
+        <v>413</v>
+      </c>
+      <c r="E299" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" t="s">
+        <v>412</v>
+      </c>
+      <c r="E300" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" t="s">
+        <v>414</v>
+      </c>
+      <c r="D301" t="s">
+        <v>593</v>
+      </c>
+      <c r="E301" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302" t="s">
+        <v>409</v>
+      </c>
+      <c r="C302" t="s">
+        <v>409</v>
+      </c>
+      <c r="D302" t="s">
+        <v>594</v>
+      </c>
+      <c r="E302" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303" t="s">
+        <v>595</v>
+      </c>
+      <c r="E303" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304" t="s">
+        <v>415</v>
+      </c>
+      <c r="D304" t="s">
+        <v>594</v>
+      </c>
+      <c r="E304" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" t="s">
+        <v>415</v>
+      </c>
+      <c r="C305" t="s">
+        <v>409</v>
+      </c>
+      <c r="D305" t="s">
+        <v>594</v>
+      </c>
+      <c r="E305" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306" t="s">
+        <v>416</v>
+      </c>
+      <c r="C306" t="s">
+        <v>409</v>
+      </c>
+      <c r="D306" t="s">
+        <v>594</v>
+      </c>
+      <c r="E306" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307" t="s">
+        <v>596</v>
+      </c>
+      <c r="E307" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308" t="s">
+        <v>415</v>
+      </c>
+      <c r="C308" t="s">
+        <v>409</v>
+      </c>
+      <c r="D308" t="s">
+        <v>594</v>
+      </c>
+      <c r="E308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309" t="s">
+        <v>597</v>
+      </c>
+      <c r="E309" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310" t="s">
+        <v>598</v>
+      </c>
+      <c r="E310" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311" t="s">
+        <v>339</v>
+      </c>
+      <c r="C311" t="s">
+        <v>353</v>
+      </c>
+      <c r="D311" t="s">
+        <v>599</v>
+      </c>
+      <c r="E311" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312" t="s">
+        <v>600</v>
+      </c>
+      <c r="E312" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" t="s">
+        <v>601</v>
+      </c>
+      <c r="E313" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" t="s">
+        <v>602</v>
+      </c>
+      <c r="E314" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315" t="s">
+        <v>418</v>
+      </c>
+      <c r="E315" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316" t="s">
+        <v>417</v>
+      </c>
+      <c r="E316" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>320</v>
+      </c>
+      <c r="B317" t="s">
+        <v>418</v>
+      </c>
+      <c r="E317" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318" t="s">
+        <v>418</v>
+      </c>
+      <c r="E318" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319" t="s">
+        <v>419</v>
+      </c>
+      <c r="E319" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" t="s">
+        <v>420</v>
+      </c>
+      <c r="E320" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>324</v>
+      </c>
+      <c r="B321" t="s">
+        <v>421</v>
+      </c>
+      <c r="E321" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322" t="s">
+        <v>422</v>
+      </c>
+      <c r="E322" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>326</v>
+      </c>
+      <c r="D323" t="s">
+        <v>603</v>
+      </c>
+      <c r="E323" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>327</v>
+      </c>
+      <c r="B324" t="s">
+        <v>409</v>
+      </c>
+      <c r="D324" t="s">
+        <v>604</v>
+      </c>
+      <c r="E324" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/to_standardize.xlsx
+++ b/to_standardize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="639">
   <si>
     <t>GUID</t>
   </si>
@@ -115,6 +115,9 @@
     <t>fa6042af-22ab-4694-a4d7-40a8dc14bfed</t>
   </si>
   <si>
+    <t>463b761b-7945-456a-8746-60ccf84bf5a1</t>
+  </si>
+  <si>
     <t>f95e2d26-ce17-4b49-8cfe-ca6d6ec5f85b</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>251c6a6d-3734-473d-a7df-12c5606f92ff</t>
   </si>
   <si>
+    <t>9273202a-2228-45b8-95d4-5b989cb42063</t>
+  </si>
+  <si>
     <t>c7f856cf-f2b6-4f01-991d-4d5695bf17a3</t>
   </si>
   <si>
@@ -433,6 +439,459 @@
     <t>46a9adfe-8566-429c-912a-3eafab1de796</t>
   </si>
   <si>
+    <t>6db7c686-4135-4c4e-a46e-879f89089a36</t>
+  </si>
+  <si>
+    <t>37cf3826-e75e-4876-91de-7c1555b0ddf6</t>
+  </si>
+  <si>
+    <t>82cd9aea-8da7-4522-8170-61500df4734a</t>
+  </si>
+  <si>
+    <t>6fb1ca33-9b26-49be-b339-176b752f4b5b</t>
+  </si>
+  <si>
+    <t>c50ad3bb-13d2-4ead-9ff9-606579e8f458</t>
+  </si>
+  <si>
+    <t>9016e337-bbd8-43f6-8e93-94e5db02ec40</t>
+  </si>
+  <si>
+    <t>dc0ec65d-97e7-4e44-9ed7-ad52324318ba</t>
+  </si>
+  <si>
+    <t>7e7de79d-783c-4171-a509-f52de63f0be8</t>
+  </si>
+  <si>
+    <t>3b0053e1-5ce0-4809-ab23-a76aab2eb0fe</t>
+  </si>
+  <si>
+    <t>71a8c4a9-439d-4fa8-9807-2d395cc1147c</t>
+  </si>
+  <si>
+    <t>c5924645-d83f-43f8-a6d0-979f134f4ce2</t>
+  </si>
+  <si>
+    <t>c8e3f094-1314-4153-adb1-dc5f1ac429ad</t>
+  </si>
+  <si>
+    <t>145bc2b0-5795-4ac9-8892-1da17ca9c8bc</t>
+  </si>
+  <si>
+    <t>41a5e41a-9ce2-4a95-9438-e14b318c24cf</t>
+  </si>
+  <si>
+    <t>9acfe0af-fb31-4adc-bbf7-d436e5507137</t>
+  </si>
+  <si>
+    <t>77abc0a5-08d2-4dd2-a383-75fd45c3951b</t>
+  </si>
+  <si>
+    <t>57d6cd6d-1c47-4514-b6bf-a3aeded0fdb4</t>
+  </si>
+  <si>
+    <t>5e71ea37-9de6-4eb2-943d-ef09e7811732</t>
+  </si>
+  <si>
+    <t>7c396330-6e71-4ff7-a678-aeca2859a716</t>
+  </si>
+  <si>
+    <t>4fba2cbc-365a-46fe-abfc-f5896f91d46d</t>
+  </si>
+  <si>
+    <t>6fc174b5-c28a-4efb-9de5-3ac2102567be</t>
+  </si>
+  <si>
+    <t>5fd4ae62-7652-45c0-8f1a-6de5289db165</t>
+  </si>
+  <si>
+    <t>89d0d4cf-b0cf-4ac5-ac09-4a9a7a77445e</t>
+  </si>
+  <si>
+    <t>041b74d9-50f5-4cb8-8c80-50e8b3f64830</t>
+  </si>
+  <si>
+    <t>83c73ca8-760e-49d1-bf3f-6ede489362cb</t>
+  </si>
+  <si>
+    <t>d581df3b-d726-4253-95ed-b929f3336d08</t>
+  </si>
+  <si>
+    <t>ae9cecc8-3049-4fe8-a157-a7c691bc24ea</t>
+  </si>
+  <si>
+    <t>28a8ecab-ba5e-4150-844f-4691acc201e3</t>
+  </si>
+  <si>
+    <t>a3c55df4-3a09-494a-af85-c763b8e1f721</t>
+  </si>
+  <si>
+    <t>33958b7f-2042-4d3a-84a7-5806436ab96d</t>
+  </si>
+  <si>
+    <t>f8cb95c0-f43b-4646-bb8c-59e1f6120ea2</t>
+  </si>
+  <si>
+    <t>00c2f85b-02c1-4690-9da0-0450e7638ff2</t>
+  </si>
+  <si>
+    <t>e3825126-81b0-4f02-8bf2-02d5f5a14fe7</t>
+  </si>
+  <si>
+    <t>0160fbce-7df6-4a5d-b087-656f430fd356</t>
+  </si>
+  <si>
+    <t>b84409d6-7ad7-44d5-871b-d7576c30627e</t>
+  </si>
+  <si>
+    <t>a5f9df21-fa71-4358-8021-2291446f0a43</t>
+  </si>
+  <si>
+    <t>4e0dff3a-8050-4c5f-9af1-f4b5d723c0ba</t>
+  </si>
+  <si>
+    <t>f5e3ea39-75d4-4f3f-9a4e-e3fcaf8af081</t>
+  </si>
+  <si>
+    <t>eaefd0cb-3088-4311-a230-eed598d4a515</t>
+  </si>
+  <si>
+    <t>c8ea5bef-c761-466d-ae2c-9c49d9d4e3f3</t>
+  </si>
+  <si>
+    <t>ab801af5-6b00-4d2c-abd4-c1a6f23927b4</t>
+  </si>
+  <si>
+    <t>394ef4e4-73e6-40e9-ab3a-1cf5dbb60400</t>
+  </si>
+  <si>
+    <t>7c382ea4-5b36-4b8d-910b-1e65981f75ed</t>
+  </si>
+  <si>
+    <t>81736f50-31b8-4994-8a3f-8dd186b5c875</t>
+  </si>
+  <si>
+    <t>bd2a198a-6d1b-4851-b538-eaaf23938cff</t>
+  </si>
+  <si>
+    <t>27e1156f-afb7-4115-82c1-55decff8141d</t>
+  </si>
+  <si>
+    <t>a7fe93e2-c75f-4703-8330-a7bdd55d13af</t>
+  </si>
+  <si>
+    <t>dde89636-ea06-4fc2-acd3-3683efd1dff0</t>
+  </si>
+  <si>
+    <t>33956c60-f8a2-45f4-8b15-bf83a7013c20</t>
+  </si>
+  <si>
+    <t>c9e5a135-6f52-4943-8e00-d6e559c51236</t>
+  </si>
+  <si>
+    <t>ae0b00e6-0c93-4d03-b558-3ced89809b96</t>
+  </si>
+  <si>
+    <t>85057440-0cdb-4c23-908e-9783392cc734</t>
+  </si>
+  <si>
+    <t>6263d532-d24a-4feb-8fac-89160cdaf343</t>
+  </si>
+  <si>
+    <t>632e00cd-51a4-4463-b2a7-9bf9772be768</t>
+  </si>
+  <si>
+    <t>99798da5-7a9e-40e8-80ee-cf2b7cc5a193</t>
+  </si>
+  <si>
+    <t>95171d02-e574-42eb-928a-3f7f7bd8ed5d</t>
+  </si>
+  <si>
+    <t>d83e10c8-edaa-476f-84d6-3a8fd50d0c19</t>
+  </si>
+  <si>
+    <t>cd6c80fd-6e3e-497f-aa6e-e17374602c9c</t>
+  </si>
+  <si>
+    <t>57866457-adce-492f-9161-449e0dcb00e8</t>
+  </si>
+  <si>
+    <t>d6df1e1c-b470-4b77-8554-21de16d7008d</t>
+  </si>
+  <si>
+    <t>e2520be1-ffed-4521-8428-8b1fca08c551</t>
+  </si>
+  <si>
+    <t>33ee9cd4-02e9-4603-bcb9-cd8ef9722eb7</t>
+  </si>
+  <si>
+    <t>48324a49-9814-4226-a70c-52c65d15e61c</t>
+  </si>
+  <si>
+    <t>8d0f5e45-9748-4467-831e-f94672ad50ac</t>
+  </si>
+  <si>
+    <t>9c683672-d5bb-4d85-81ba-ce5b1fad6e85</t>
+  </si>
+  <si>
+    <t>c977c68d-8b66-4a27-a314-8487092b4515</t>
+  </si>
+  <si>
+    <t>1f446821-d4ea-4241-abbd-c809af271a40</t>
+  </si>
+  <si>
+    <t>93cf36fc-810e-4d4c-a2c7-8de883fac99c</t>
+  </si>
+  <si>
+    <t>e837cc8f-b4fc-4162-9782-677162f4869d</t>
+  </si>
+  <si>
+    <t>b4349619-239f-45b6-ab5e-e9c9e8c6e74d</t>
+  </si>
+  <si>
+    <t>c75d9185-7b0f-4ff2-8789-02d049a9d708</t>
+  </si>
+  <si>
+    <t>abebca79-66f4-4f81-b19f-78f107b1597f</t>
+  </si>
+  <si>
+    <t>5ee82826-d23f-45f3-b876-d67fcaae6dc0</t>
+  </si>
+  <si>
+    <t>5a9843ab-e213-4753-9c9b-a077bd0333ab</t>
+  </si>
+  <si>
+    <t>f3eef140-885c-40d2-a5f1-5ca41289d7b5</t>
+  </si>
+  <si>
+    <t>19ae8085-1db8-4c00-b657-8a59b9714d17</t>
+  </si>
+  <si>
+    <t>ff2f0bc2-b550-439b-8526-f78bb24c304c</t>
+  </si>
+  <si>
+    <t>58e9629c-bc84-4547-a405-5262c789381d</t>
+  </si>
+  <si>
+    <t>fe3fefbc-572e-4338-8039-113c1f758ede</t>
+  </si>
+  <si>
+    <t>6bfd71e4-6ed9-4507-ae64-769b9388d207</t>
+  </si>
+  <si>
+    <t>c9f4383b-b5d7-448e-99a3-ee6fb3bd0173</t>
+  </si>
+  <si>
+    <t>c8b00552-f5ef-45b6-85a8-24d58cb5edf4</t>
+  </si>
+  <si>
+    <t>35b769e8-24ad-4c42-acd4-16c9af9eef66</t>
+  </si>
+  <si>
+    <t>a565b8f1-89b1-49e8-8582-26fdb7ab5a43</t>
+  </si>
+  <si>
+    <t>9b6cf2bd-27d1-429c-951b-6390dbdda96b</t>
+  </si>
+  <si>
+    <t>43057d9c-0c06-42a1-a6a6-cc61484f79ae</t>
+  </si>
+  <si>
+    <t>d4da3fd9-d9d4-4f50-8748-1bdb8fccbf1a</t>
+  </si>
+  <si>
+    <t>e86b8a0a-48ac-43a6-a399-a1a69ca510e8</t>
+  </si>
+  <si>
+    <t>800590ce-ff5a-4d4c-a327-4dc8887b68e2</t>
+  </si>
+  <si>
+    <t>56720855-8771-4251-bd11-c686e68de1f6</t>
+  </si>
+  <si>
+    <t>b79d4bd3-ccbe-4dd8-8d5b-dcf649646ff9</t>
+  </si>
+  <si>
+    <t>03e48366-6f3c-4e47-a3cb-6072b8675b3f</t>
+  </si>
+  <si>
+    <t>806eab25-e7ee-4601-8eef-698a295c885a</t>
+  </si>
+  <si>
+    <t>c94b712b-d328-4bab-ba27-1dd5b241b5a4</t>
+  </si>
+  <si>
+    <t>6f1f1e08-95eb-49f8-8268-c01438b2ab08</t>
+  </si>
+  <si>
+    <t>feeb20c3-da34-4409-a4b2-d9e497ddd9de</t>
+  </si>
+  <si>
+    <t>4ce5dc49-df28-4238-b140-36ff927a4a67</t>
+  </si>
+  <si>
+    <t>bfd2f04b-6dc7-479c-a770-bef782a17ade</t>
+  </si>
+  <si>
+    <t>71962957-ce20-4575-a376-355a16c92347</t>
+  </si>
+  <si>
+    <t>addd9275-df2c-45b3-8872-cbd3f1e42899</t>
+  </si>
+  <si>
+    <t>360debda-c0f7-463d-8558-637bfbaf92b2</t>
+  </si>
+  <si>
+    <t>9a301515-2f59-4ba2-84c4-f03c9cf68fdc</t>
+  </si>
+  <si>
+    <t>6e6af40a-0713-4ace-b3a1-57d42ee5493d</t>
+  </si>
+  <si>
+    <t>11995f78-4c9d-40d4-a070-a033ffa0f9fc</t>
+  </si>
+  <si>
+    <t>bfd15f50-49c1-4d9b-a4b7-e5568fead563</t>
+  </si>
+  <si>
+    <t>a99d1c98-d0ca-4ad6-95fa-7c8f331d8f11</t>
+  </si>
+  <si>
+    <t>88282e47-e44e-4723-809c-b525a381ca79</t>
+  </si>
+  <si>
+    <t>57700e5d-934e-44b9-a968-6f1b83b1bc40</t>
+  </si>
+  <si>
+    <t>142b9c40-ee82-4450-a226-13afdb519a72</t>
+  </si>
+  <si>
+    <t>18207bea-d57f-4af1-8c47-7ab01ab54679</t>
+  </si>
+  <si>
+    <t>6e6b3599-51fd-4dbe-b67e-2ccd66ff6199</t>
+  </si>
+  <si>
+    <t>ffe4a1eb-4b59-45dc-916d-b1cc5fa723d7</t>
+  </si>
+  <si>
+    <t>89f9dc41-1d57-424b-a65e-7fdb5ecc78ab</t>
+  </si>
+  <si>
+    <t>98cb74da-4c24-4c8c-b324-5129c174d752</t>
+  </si>
+  <si>
+    <t>8fee5a55-5850-427d-a1ab-52b1d07f3d21</t>
+  </si>
+  <si>
+    <t>0296fbb1-ae5b-492a-b0af-fe7031a6c39e</t>
+  </si>
+  <si>
+    <t>ecccdba5-56cb-4c99-bb12-2509d18137eb</t>
+  </si>
+  <si>
+    <t>026fc76e-7f57-407b-aa14-1c9ec75b6bc5</t>
+  </si>
+  <si>
+    <t>2ae2f366-0c4d-48e3-8212-c0424c7d89a8</t>
+  </si>
+  <si>
+    <t>555bd752-34c0-4a19-a4f1-241a5281cdc4</t>
+  </si>
+  <si>
+    <t>ad652cdb-e769-428c-bd22-34438bc121d8</t>
+  </si>
+  <si>
+    <t>b6f73c22-80d6-4ec0-944f-9be46f26e005</t>
+  </si>
+  <si>
+    <t>ed00b91d-2f28-4d22-8e25-b3991b0b2d00</t>
+  </si>
+  <si>
+    <t>2a5cf5b9-f217-481b-9a7a-12ec2ec94707</t>
+  </si>
+  <si>
+    <t>d0c5f22b-951a-4dc4-b298-bcc4db03f9a1</t>
+  </si>
+  <si>
+    <t>c34e5469-b612-4bb2-921c-272ed0e669ff</t>
+  </si>
+  <si>
+    <t>e3518cf2-0db1-459f-8157-14bb2085fe9f</t>
+  </si>
+  <si>
+    <t>f2d087b4-2c33-480d-a308-a43039b867ae</t>
+  </si>
+  <si>
+    <t>38e2c39c-2518-4a43-9326-80e75aa4d1b2</t>
+  </si>
+  <si>
+    <t>9f399c62-a466-4d6d-9999-12c693478b19</t>
+  </si>
+  <si>
+    <t>2877cd2a-61df-4d9f-aa8d-52db0aeff668</t>
+  </si>
+  <si>
+    <t>1b984098-6c6a-426f-a864-a333de489b34</t>
+  </si>
+  <si>
+    <t>d7b07ff4-0890-4bcd-b27e-d8517d1bcc1a</t>
+  </si>
+  <si>
+    <t>1fed3741-fce5-4333-b4cb-d48537948f3b</t>
+  </si>
+  <si>
+    <t>5f8dc39e-7077-4320-9a12-7f08ddc621ab</t>
+  </si>
+  <si>
+    <t>be2a24d9-987a-4ca4-aa92-4d8dca65bfea</t>
+  </si>
+  <si>
+    <t>9779918d-adbc-4d53-9251-ff33a3876b8a</t>
+  </si>
+  <si>
+    <t>d6c0f227-edcd-46f0-8778-7b434e763136</t>
+  </si>
+  <si>
+    <t>933cba5b-4b68-4dfc-9e0d-ed2ee7402f52</t>
+  </si>
+  <si>
+    <t>82c93835-e5b4-407a-ae78-120b11988c82</t>
+  </si>
+  <si>
+    <t>972a5f67-da0b-43bb-9e50-7421224ec9bc</t>
+  </si>
+  <si>
+    <t>7830fc4d-4bd9-4414-9899-4f19a85ba077</t>
+  </si>
+  <si>
+    <t>9877f747-bd43-4511-be38-10db957c6a9f</t>
+  </si>
+  <si>
+    <t>7db8ffe9-c010-47b8-b785-8c902542bdd9</t>
+  </si>
+  <si>
+    <t>ba029cd6-77d0-40b6-83d2-126361779a7d</t>
+  </si>
+  <si>
+    <t>08f3f085-1ea4-4fda-9d46-0c828b722529</t>
+  </si>
+  <si>
+    <t>001c95f8-7754-41fc-aec6-c7c67622aa4a</t>
+  </si>
+  <si>
+    <t>a96482a3-b5e2-4c05-8fdc-3631c91b8745</t>
+  </si>
+  <si>
+    <t>d9adffc8-e18b-4c6f-b14c-2e2579837ee9</t>
+  </si>
+  <si>
+    <t>23c33316-5742-4bdd-a85d-b6287ae0f4f1</t>
+  </si>
+  <si>
+    <t>5a99a916-1aa7-4e4e-aa50-8b7dadb23440</t>
+  </si>
+  <si>
     <t>696ae5fa-cf80-4fe8-afed-eb6452825dbe</t>
   </si>
   <si>
@@ -442,6 +901,9 @@
     <t>0e25e631-43b1-44d6-bded-f2db71a82742</t>
   </si>
   <si>
+    <t>f99ed9e6-2238-4b40-b998-9f5831233181</t>
+  </si>
+  <si>
     <t>2869f951-30f2-4fd7-84c0-2fe8d77c2d3b</t>
   </si>
   <si>
@@ -454,447 +916,24 @@
     <t>1abbfabf-0dad-4258-a1c8-8df6b16087b6</t>
   </si>
   <si>
+    <t>a8e103a5-d7ff-43b3-8b31-20743bb95776</t>
+  </si>
+  <si>
+    <t>71d43d4d-24a8-47d7-a1aa-d8ab08f4e81c</t>
+  </si>
+  <si>
+    <t>b411f6c1-545f-4436-b816-649f03066647</t>
+  </si>
+  <si>
+    <t>bbdd5935-d1a1-49cd-82d4-86e44fbdf0c1</t>
+  </si>
+  <si>
     <t>e4c0c25e-d7c9-4673-926c-20ba11a05226</t>
   </si>
   <si>
     <t>d8a66752-1da9-410d-9e9b-abb275110aad</t>
   </si>
   <si>
-    <t>6db7c686-4135-4c4e-a46e-879f89089a36</t>
-  </si>
-  <si>
-    <t>37cf3826-e75e-4876-91de-7c1555b0ddf6</t>
-  </si>
-  <si>
-    <t>82cd9aea-8da7-4522-8170-61500df4734a</t>
-  </si>
-  <si>
-    <t>6fb1ca33-9b26-49be-b339-176b752f4b5b</t>
-  </si>
-  <si>
-    <t>c50ad3bb-13d2-4ead-9ff9-606579e8f458</t>
-  </si>
-  <si>
-    <t>9016e337-bbd8-43f6-8e93-94e5db02ec40</t>
-  </si>
-  <si>
-    <t>dc0ec65d-97e7-4e44-9ed7-ad52324318ba</t>
-  </si>
-  <si>
-    <t>7e7de79d-783c-4171-a509-f52de63f0be8</t>
-  </si>
-  <si>
-    <t>3b0053e1-5ce0-4809-ab23-a76aab2eb0fe</t>
-  </si>
-  <si>
-    <t>71a8c4a9-439d-4fa8-9807-2d395cc1147c</t>
-  </si>
-  <si>
-    <t>c5924645-d83f-43f8-a6d0-979f134f4ce2</t>
-  </si>
-  <si>
-    <t>c8e3f094-1314-4153-adb1-dc5f1ac429ad</t>
-  </si>
-  <si>
-    <t>145bc2b0-5795-4ac9-8892-1da17ca9c8bc</t>
-  </si>
-  <si>
-    <t>41a5e41a-9ce2-4a95-9438-e14b318c24cf</t>
-  </si>
-  <si>
-    <t>9acfe0af-fb31-4adc-bbf7-d436e5507137</t>
-  </si>
-  <si>
-    <t>77abc0a5-08d2-4dd2-a383-75fd45c3951b</t>
-  </si>
-  <si>
-    <t>57d6cd6d-1c47-4514-b6bf-a3aeded0fdb4</t>
-  </si>
-  <si>
-    <t>5e71ea37-9de6-4eb2-943d-ef09e7811732</t>
-  </si>
-  <si>
-    <t>7c396330-6e71-4ff7-a678-aeca2859a716</t>
-  </si>
-  <si>
-    <t>4fba2cbc-365a-46fe-abfc-f5896f91d46d</t>
-  </si>
-  <si>
-    <t>6fc174b5-c28a-4efb-9de5-3ac2102567be</t>
-  </si>
-  <si>
-    <t>5fd4ae62-7652-45c0-8f1a-6de5289db165</t>
-  </si>
-  <si>
-    <t>89d0d4cf-b0cf-4ac5-ac09-4a9a7a77445e</t>
-  </si>
-  <si>
-    <t>041b74d9-50f5-4cb8-8c80-50e8b3f64830</t>
-  </si>
-  <si>
-    <t>83c73ca8-760e-49d1-bf3f-6ede489362cb</t>
-  </si>
-  <si>
-    <t>d581df3b-d726-4253-95ed-b929f3336d08</t>
-  </si>
-  <si>
-    <t>ae9cecc8-3049-4fe8-a157-a7c691bc24ea</t>
-  </si>
-  <si>
-    <t>28a8ecab-ba5e-4150-844f-4691acc201e3</t>
-  </si>
-  <si>
-    <t>a3c55df4-3a09-494a-af85-c763b8e1f721</t>
-  </si>
-  <si>
-    <t>33958b7f-2042-4d3a-84a7-5806436ab96d</t>
-  </si>
-  <si>
-    <t>f8cb95c0-f43b-4646-bb8c-59e1f6120ea2</t>
-  </si>
-  <si>
-    <t>00c2f85b-02c1-4690-9da0-0450e7638ff2</t>
-  </si>
-  <si>
-    <t>e3825126-81b0-4f02-8bf2-02d5f5a14fe7</t>
-  </si>
-  <si>
-    <t>0160fbce-7df6-4a5d-b087-656f430fd356</t>
-  </si>
-  <si>
-    <t>b84409d6-7ad7-44d5-871b-d7576c30627e</t>
-  </si>
-  <si>
-    <t>a5f9df21-fa71-4358-8021-2291446f0a43</t>
-  </si>
-  <si>
-    <t>4e0dff3a-8050-4c5f-9af1-f4b5d723c0ba</t>
-  </si>
-  <si>
-    <t>f5e3ea39-75d4-4f3f-9a4e-e3fcaf8af081</t>
-  </si>
-  <si>
-    <t>eaefd0cb-3088-4311-a230-eed598d4a515</t>
-  </si>
-  <si>
-    <t>c8ea5bef-c761-466d-ae2c-9c49d9d4e3f3</t>
-  </si>
-  <si>
-    <t>ab801af5-6b00-4d2c-abd4-c1a6f23927b4</t>
-  </si>
-  <si>
-    <t>394ef4e4-73e6-40e9-ab3a-1cf5dbb60400</t>
-  </si>
-  <si>
-    <t>7c382ea4-5b36-4b8d-910b-1e65981f75ed</t>
-  </si>
-  <si>
-    <t>81736f50-31b8-4994-8a3f-8dd186b5c875</t>
-  </si>
-  <si>
-    <t>bd2a198a-6d1b-4851-b538-eaaf23938cff</t>
-  </si>
-  <si>
-    <t>27e1156f-afb7-4115-82c1-55decff8141d</t>
-  </si>
-  <si>
-    <t>a7fe93e2-c75f-4703-8330-a7bdd55d13af</t>
-  </si>
-  <si>
-    <t>dde89636-ea06-4fc2-acd3-3683efd1dff0</t>
-  </si>
-  <si>
-    <t>33956c60-f8a2-45f4-8b15-bf83a7013c20</t>
-  </si>
-  <si>
-    <t>c9e5a135-6f52-4943-8e00-d6e559c51236</t>
-  </si>
-  <si>
-    <t>ae0b00e6-0c93-4d03-b558-3ced89809b96</t>
-  </si>
-  <si>
-    <t>85057440-0cdb-4c23-908e-9783392cc734</t>
-  </si>
-  <si>
-    <t>6263d532-d24a-4feb-8fac-89160cdaf343</t>
-  </si>
-  <si>
-    <t>632e00cd-51a4-4463-b2a7-9bf9772be768</t>
-  </si>
-  <si>
-    <t>99798da5-7a9e-40e8-80ee-cf2b7cc5a193</t>
-  </si>
-  <si>
-    <t>95171d02-e574-42eb-928a-3f7f7bd8ed5d</t>
-  </si>
-  <si>
-    <t>d83e10c8-edaa-476f-84d6-3a8fd50d0c19</t>
-  </si>
-  <si>
-    <t>cd6c80fd-6e3e-497f-aa6e-e17374602c9c</t>
-  </si>
-  <si>
-    <t>57866457-adce-492f-9161-449e0dcb00e8</t>
-  </si>
-  <si>
-    <t>d6df1e1c-b470-4b77-8554-21de16d7008d</t>
-  </si>
-  <si>
-    <t>e2520be1-ffed-4521-8428-8b1fca08c551</t>
-  </si>
-  <si>
-    <t>33ee9cd4-02e9-4603-bcb9-cd8ef9722eb7</t>
-  </si>
-  <si>
-    <t>48324a49-9814-4226-a70c-52c65d15e61c</t>
-  </si>
-  <si>
-    <t>8d0f5e45-9748-4467-831e-f94672ad50ac</t>
-  </si>
-  <si>
-    <t>9c683672-d5bb-4d85-81ba-ce5b1fad6e85</t>
-  </si>
-  <si>
-    <t>c977c68d-8b66-4a27-a314-8487092b4515</t>
-  </si>
-  <si>
-    <t>1f446821-d4ea-4241-abbd-c809af271a40</t>
-  </si>
-  <si>
-    <t>93cf36fc-810e-4d4c-a2c7-8de883fac99c</t>
-  </si>
-  <si>
-    <t>e837cc8f-b4fc-4162-9782-677162f4869d</t>
-  </si>
-  <si>
-    <t>b4349619-239f-45b6-ab5e-e9c9e8c6e74d</t>
-  </si>
-  <si>
-    <t>c75d9185-7b0f-4ff2-8789-02d049a9d708</t>
-  </si>
-  <si>
-    <t>abebca79-66f4-4f81-b19f-78f107b1597f</t>
-  </si>
-  <si>
-    <t>5ee82826-d23f-45f3-b876-d67fcaae6dc0</t>
-  </si>
-  <si>
-    <t>5a9843ab-e213-4753-9c9b-a077bd0333ab</t>
-  </si>
-  <si>
-    <t>f3eef140-885c-40d2-a5f1-5ca41289d7b5</t>
-  </si>
-  <si>
-    <t>19ae8085-1db8-4c00-b657-8a59b9714d17</t>
-  </si>
-  <si>
-    <t>ff2f0bc2-b550-439b-8526-f78bb24c304c</t>
-  </si>
-  <si>
-    <t>58e9629c-bc84-4547-a405-5262c789381d</t>
-  </si>
-  <si>
-    <t>fe3fefbc-572e-4338-8039-113c1f758ede</t>
-  </si>
-  <si>
-    <t>6bfd71e4-6ed9-4507-ae64-769b9388d207</t>
-  </si>
-  <si>
-    <t>c9f4383b-b5d7-448e-99a3-ee6fb3bd0173</t>
-  </si>
-  <si>
-    <t>c8b00552-f5ef-45b6-85a8-24d58cb5edf4</t>
-  </si>
-  <si>
-    <t>35b769e8-24ad-4c42-acd4-16c9af9eef66</t>
-  </si>
-  <si>
-    <t>a565b8f1-89b1-49e8-8582-26fdb7ab5a43</t>
-  </si>
-  <si>
-    <t>9b6cf2bd-27d1-429c-951b-6390dbdda96b</t>
-  </si>
-  <si>
-    <t>43057d9c-0c06-42a1-a6a6-cc61484f79ae</t>
-  </si>
-  <si>
-    <t>d4da3fd9-d9d4-4f50-8748-1bdb8fccbf1a</t>
-  </si>
-  <si>
-    <t>e86b8a0a-48ac-43a6-a399-a1a69ca510e8</t>
-  </si>
-  <si>
-    <t>800590ce-ff5a-4d4c-a327-4dc8887b68e2</t>
-  </si>
-  <si>
-    <t>56720855-8771-4251-bd11-c686e68de1f6</t>
-  </si>
-  <si>
-    <t>b79d4bd3-ccbe-4dd8-8d5b-dcf649646ff9</t>
-  </si>
-  <si>
-    <t>03e48366-6f3c-4e47-a3cb-6072b8675b3f</t>
-  </si>
-  <si>
-    <t>806eab25-e7ee-4601-8eef-698a295c885a</t>
-  </si>
-  <si>
-    <t>c94b712b-d328-4bab-ba27-1dd5b241b5a4</t>
-  </si>
-  <si>
-    <t>6f1f1e08-95eb-49f8-8268-c01438b2ab08</t>
-  </si>
-  <si>
-    <t>feeb20c3-da34-4409-a4b2-d9e497ddd9de</t>
-  </si>
-  <si>
-    <t>4ce5dc49-df28-4238-b140-36ff927a4a67</t>
-  </si>
-  <si>
-    <t>bfd2f04b-6dc7-479c-a770-bef782a17ade</t>
-  </si>
-  <si>
-    <t>71962957-ce20-4575-a376-355a16c92347</t>
-  </si>
-  <si>
-    <t>addd9275-df2c-45b3-8872-cbd3f1e42899</t>
-  </si>
-  <si>
-    <t>360debda-c0f7-463d-8558-637bfbaf92b2</t>
-  </si>
-  <si>
-    <t>9a301515-2f59-4ba2-84c4-f03c9cf68fdc</t>
-  </si>
-  <si>
-    <t>6e6af40a-0713-4ace-b3a1-57d42ee5493d</t>
-  </si>
-  <si>
-    <t>11995f78-4c9d-40d4-a070-a033ffa0f9fc</t>
-  </si>
-  <si>
-    <t>bfd15f50-49c1-4d9b-a4b7-e5568fead563</t>
-  </si>
-  <si>
-    <t>a99d1c98-d0ca-4ad6-95fa-7c8f331d8f11</t>
-  </si>
-  <si>
-    <t>88282e47-e44e-4723-809c-b525a381ca79</t>
-  </si>
-  <si>
-    <t>57700e5d-934e-44b9-a968-6f1b83b1bc40</t>
-  </si>
-  <si>
-    <t>142b9c40-ee82-4450-a226-13afdb519a72</t>
-  </si>
-  <si>
-    <t>18207bea-d57f-4af1-8c47-7ab01ab54679</t>
-  </si>
-  <si>
-    <t>6e6b3599-51fd-4dbe-b67e-2ccd66ff6199</t>
-  </si>
-  <si>
-    <t>ffe4a1eb-4b59-45dc-916d-b1cc5fa723d7</t>
-  </si>
-  <si>
-    <t>89f9dc41-1d57-424b-a65e-7fdb5ecc78ab</t>
-  </si>
-  <si>
-    <t>98cb74da-4c24-4c8c-b324-5129c174d752</t>
-  </si>
-  <si>
-    <t>8fee5a55-5850-427d-a1ab-52b1d07f3d21</t>
-  </si>
-  <si>
-    <t>0296fbb1-ae5b-492a-b0af-fe7031a6c39e</t>
-  </si>
-  <si>
-    <t>ecccdba5-56cb-4c99-bb12-2509d18137eb</t>
-  </si>
-  <si>
-    <t>026fc76e-7f57-407b-aa14-1c9ec75b6bc5</t>
-  </si>
-  <si>
-    <t>2ae2f366-0c4d-48e3-8212-c0424c7d89a8</t>
-  </si>
-  <si>
-    <t>555bd752-34c0-4a19-a4f1-241a5281cdc4</t>
-  </si>
-  <si>
-    <t>ad652cdb-e769-428c-bd22-34438bc121d8</t>
-  </si>
-  <si>
-    <t>b6f73c22-80d6-4ec0-944f-9be46f26e005</t>
-  </si>
-  <si>
-    <t>ed00b91d-2f28-4d22-8e25-b3991b0b2d00</t>
-  </si>
-  <si>
-    <t>2a5cf5b9-f217-481b-9a7a-12ec2ec94707</t>
-  </si>
-  <si>
-    <t>d0c5f22b-951a-4dc4-b298-bcc4db03f9a1</t>
-  </si>
-  <si>
-    <t>c34e5469-b612-4bb2-921c-272ed0e669ff</t>
-  </si>
-  <si>
-    <t>e3518cf2-0db1-459f-8157-14bb2085fe9f</t>
-  </si>
-  <si>
-    <t>f2d087b4-2c33-480d-a308-a43039b867ae</t>
-  </si>
-  <si>
-    <t>38e2c39c-2518-4a43-9326-80e75aa4d1b2</t>
-  </si>
-  <si>
-    <t>9f399c62-a466-4d6d-9999-12c693478b19</t>
-  </si>
-  <si>
-    <t>2877cd2a-61df-4d9f-aa8d-52db0aeff668</t>
-  </si>
-  <si>
-    <t>1b984098-6c6a-426f-a864-a333de489b34</t>
-  </si>
-  <si>
-    <t>d7b07ff4-0890-4bcd-b27e-d8517d1bcc1a</t>
-  </si>
-  <si>
-    <t>1fed3741-fce5-4333-b4cb-d48537948f3b</t>
-  </si>
-  <si>
-    <t>5f8dc39e-7077-4320-9a12-7f08ddc621ab</t>
-  </si>
-  <si>
-    <t>be2a24d9-987a-4ca4-aa92-4d8dca65bfea</t>
-  </si>
-  <si>
-    <t>9779918d-adbc-4d53-9251-ff33a3876b8a</t>
-  </si>
-  <si>
-    <t>d6c0f227-edcd-46f0-8778-7b434e763136</t>
-  </si>
-  <si>
-    <t>933cba5b-4b68-4dfc-9e0d-ed2ee7402f52</t>
-  </si>
-  <si>
-    <t>82c93835-e5b4-407a-ae78-120b11988c82</t>
-  </si>
-  <si>
-    <t>972a5f67-da0b-43bb-9e50-7421224ec9bc</t>
-  </si>
-  <si>
-    <t>ba029cd6-77d0-40b6-83d2-126361779a7d</t>
-  </si>
-  <si>
-    <t>08f3f085-1ea4-4fda-9d46-0c828b722529</t>
-  </si>
-  <si>
-    <t>001c95f8-7754-41fc-aec6-c7c67622aa4a</t>
-  </si>
-  <si>
-    <t>5a99a916-1aa7-4e4e-aa50-8b7dadb23440</t>
-  </si>
-  <si>
     <t>d5d201ca-be09-475c-b6f4-3aaa6360695d</t>
   </si>
   <si>
@@ -1123,6 +1162,108 @@
     <t>Roy</t>
   </si>
   <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Beryl</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Jeff.</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Adolf</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Oluna</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Wilfred</t>
+  </si>
+  <si>
+    <t>W.B. Schofield</t>
+  </si>
+  <si>
+    <t>W. B. Schofield</t>
+  </si>
+  <si>
+    <t>Corinne</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>O.</t>
+  </si>
+  <si>
+    <t>D.B.O. Saville</t>
+  </si>
+  <si>
+    <t>D. Saville</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Eli.</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Wiliam</t>
+  </si>
+  <si>
+    <t>Wm. Randolph Taylor</t>
+  </si>
+  <si>
     <t>Wm. R. Taylor</t>
   </si>
   <si>
@@ -1132,117 +1273,21 @@
     <t>Wm.R. Taylor</t>
   </si>
   <si>
+    <t>W. Taylor</t>
+  </si>
+  <si>
     <t>Wm</t>
   </si>
   <si>
     <t>WM</t>
   </si>
   <si>
+    <t>M.</t>
+  </si>
+  <si>
     <t>F. J. R. Taylor</t>
   </si>
   <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>B.</t>
-  </si>
-  <si>
-    <t>Beryl</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Jeffery</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Jeff.</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Curtis</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Adolf</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>Oluna</t>
-  </si>
-  <si>
-    <t>L.</t>
-  </si>
-  <si>
-    <t>Wilfred</t>
-  </si>
-  <si>
-    <t>W.B. Schofield</t>
-  </si>
-  <si>
-    <t>W. B. Schofield</t>
-  </si>
-  <si>
-    <t>Corinne</t>
-  </si>
-  <si>
-    <t>D.</t>
-  </si>
-  <si>
-    <t>O.</t>
-  </si>
-  <si>
-    <t>D.B.O. Saville</t>
-  </si>
-  <si>
-    <t>D. Saville</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Eli.</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Wiliam</t>
-  </si>
-  <si>
-    <t>Wm. Randolph Taylor</t>
-  </si>
-  <si>
     <t>S.</t>
   </si>
   <si>
@@ -1294,6 +1339,9 @@
     <t>M. C.</t>
   </si>
   <si>
+    <t>M.T.</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -1309,9 +1357,6 @@
     <t>Copeland</t>
   </si>
   <si>
-    <t>M.</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -1330,6 +1375,9 @@
     <t>P.</t>
   </si>
   <si>
+    <t>R.F.</t>
+  </si>
+  <si>
     <t>Lomer</t>
   </si>
   <si>
@@ -1792,9 +1840,24 @@
     <t>Quentin C Cronk</t>
   </si>
   <si>
+    <t>J.W. Taylor</t>
+  </si>
+  <si>
     <t>Wm. Taylor</t>
   </si>
   <si>
+    <t>[W. Taylor] F. Perry</t>
+  </si>
+  <si>
+    <t>W.Taylor</t>
+  </si>
+  <si>
+    <t>F. Taylor</t>
+  </si>
+  <si>
+    <t>F.Taylor</t>
+  </si>
+  <si>
     <t>Lindstrom</t>
   </si>
   <si>
@@ -1856,6 +1919,9 @@
   </si>
   <si>
     <t>William Randolph Taylor</t>
+  </si>
+  <si>
+    <t>F.J.R. Taylor</t>
   </si>
   <si>
     <t>Sandra C. Lindstrom</t>
@@ -2222,7 +2288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,13 +2316,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2264,10 +2330,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2275,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2289,10 +2355,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2300,16 +2366,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2317,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2328,16 +2394,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2345,10 +2411,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2356,10 +2422,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2367,10 +2433,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2378,10 +2444,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2389,10 +2455,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2400,10 +2466,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2411,13 +2477,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E15" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2425,10 +2491,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2436,10 +2502,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2447,10 +2513,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2458,13 +2524,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2472,16 +2538,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2489,10 +2555,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2500,16 +2566,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2517,16 +2583,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2534,16 +2600,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2551,16 +2617,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2568,10 +2634,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2579,16 +2645,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2596,10 +2662,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2607,49 +2673,55 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
+      <c r="B30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" t="s">
+        <v>441</v>
+      </c>
       <c r="D30" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" t="s">
-        <v>365</v>
-      </c>
       <c r="D31" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E31" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
+      <c r="B32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" t="s">
+        <v>378</v>
+      </c>
       <c r="D32" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E32" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2657,55 +2729,49 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="E33" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" t="s">
-        <v>365</v>
-      </c>
       <c r="D34" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="E34" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
+      <c r="B35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" t="s">
+        <v>378</v>
+      </c>
       <c r="D35" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E35" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
       <c r="D36" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="E36" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2713,13 +2779,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>353</v>
+      </c>
+      <c r="C37" t="s">
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E37" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2727,16 +2796,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D38" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E38" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2744,13 +2810,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>352</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E39" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2758,16 +2827,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E40" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2775,16 +2841,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E41" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2792,16 +2858,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C42" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E42" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2812,66 +2878,69 @@
         <v>342</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E43" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E44" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
+      <c r="B45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="E45" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46" t="s">
-        <v>362</v>
-      </c>
       <c r="D46" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E46" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>342</v>
-      </c>
       <c r="D47" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E47" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2879,13 +2948,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>356</v>
+      </c>
+      <c r="C48" t="s">
+        <v>375</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E48" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2893,16 +2965,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E49" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2910,13 +2979,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E50" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2924,16 +2993,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E51" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2941,27 +3010,30 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
-      </c>
-      <c r="C52" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E52" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" t="s">
+        <v>444</v>
+      </c>
       <c r="D53" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E53" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2969,16 +3041,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="D54" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E54" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2986,10 +3058,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="E55" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2997,16 +3069,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D56" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E56" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3014,10 +3086,10 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E57" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3025,33 +3097,27 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C58" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D58" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="E58" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
-        <v>347</v>
-      </c>
-      <c r="C59" t="s">
-        <v>429</v>
-      </c>
       <c r="D59" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E59" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3059,13 +3125,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>349</v>
+        <v>361</v>
+      </c>
+      <c r="C60" t="s">
+        <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="E60" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3073,10 +3142,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>350</v>
+        <v>360</v>
+      </c>
+      <c r="C61" t="s">
+        <v>445</v>
+      </c>
+      <c r="D61" t="s">
+        <v>479</v>
       </c>
       <c r="E61" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3084,10 +3159,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>362</v>
+      </c>
+      <c r="D62" t="s">
+        <v>479</v>
       </c>
       <c r="E62" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3095,55 +3173,49 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>351</v>
-      </c>
-      <c r="C63" t="s">
-        <v>353</v>
-      </c>
-      <c r="D63" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="E63" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="s">
-        <v>466</v>
+      <c r="B64" t="s">
+        <v>363</v>
       </c>
       <c r="E64" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
+      <c r="B65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>366</v>
+      </c>
       <c r="D65" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="E65" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s">
-        <v>331</v>
-      </c>
-      <c r="C66" t="s">
-        <v>353</v>
-      </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="E66" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3151,21 +3223,27 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="E67" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
+      <c r="B68" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
       <c r="D68" t="s">
-        <v>354</v>
+        <v>481</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3173,10 +3251,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E69" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3184,55 +3262,49 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" t="s">
-        <v>331</v>
-      </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="E71" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>353</v>
-      </c>
-      <c r="C72" t="s">
-        <v>331</v>
-      </c>
       <c r="D72" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E72" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
+      <c r="B73" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3240,21 +3312,27 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>366</v>
+      </c>
+      <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
+        <v>481</v>
       </c>
       <c r="E74" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>355</v>
+      <c r="D75" t="s">
+        <v>487</v>
       </c>
       <c r="E75" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3262,49 +3340,46 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>338</v>
-      </c>
-      <c r="D76" t="s">
-        <v>472</v>
+        <v>367</v>
       </c>
       <c r="E76" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" t="s">
-        <v>473</v>
+      <c r="B77" t="s">
+        <v>368</v>
       </c>
       <c r="E77" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
+      <c r="B78" t="s">
+        <v>351</v>
+      </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E78" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
-        <v>339</v>
-      </c>
       <c r="D79" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="E79" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3312,21 +3387,24 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
+      <c r="B81" t="s">
+        <v>352</v>
+      </c>
       <c r="D81" t="s">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="E81" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3334,35 +3412,32 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="E82" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>356</v>
+      <c r="D83" t="s">
+        <v>369</v>
       </c>
       <c r="E83" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>338</v>
-      </c>
       <c r="D84" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E84" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3370,10 +3445,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E85" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3381,16 +3456,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
-      </c>
-      <c r="C86" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D86" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E86" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3398,72 +3470,66 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
-      </c>
-      <c r="C87" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="E87" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
+      <c r="B88" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" t="s">
+        <v>398</v>
+      </c>
       <c r="D88" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
       <c r="D89" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" t="s">
-        <v>391</v>
-      </c>
       <c r="D90" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E90" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
-        <v>359</v>
-      </c>
-      <c r="C91" t="s">
-        <v>391</v>
-      </c>
       <c r="D91" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="E91" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3471,13 +3537,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>371</v>
+      </c>
+      <c r="C92" t="s">
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3485,35 +3554,44 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>372</v>
+      </c>
+      <c r="C93" t="s">
+        <v>398</v>
       </c>
       <c r="D93" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
+      <c r="B94" t="s">
+        <v>373</v>
+      </c>
       <c r="D94" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="E94" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
+      <c r="B95" t="s">
+        <v>374</v>
+      </c>
       <c r="D95" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E95" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3521,60 +3599,60 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E96" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>329</v>
-      </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E97" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
-        <v>362</v>
-      </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="E98" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" t="s">
+        <v>342</v>
+      </c>
       <c r="D99" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
+      <c r="B100" t="s">
+        <v>375</v>
+      </c>
       <c r="D100" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="E100" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3582,24 +3660,21 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="E101" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" t="s">
-        <v>363</v>
-      </c>
       <c r="D102" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="E102" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3607,21 +3682,24 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E103" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
+      <c r="B104" t="s">
+        <v>376</v>
+      </c>
       <c r="D104" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E104" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3629,10 +3707,10 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="E105" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3640,27 +3718,21 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E106" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
-        <v>364</v>
-      </c>
-      <c r="C107" t="s">
-        <v>353</v>
-      </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E107" t="s">
-        <v>606</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3668,10 +3740,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E108" t="s">
-        <v>606</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3679,55 +3751,61 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="E109" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" t="s">
-        <v>430</v>
-      </c>
       <c r="D110" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="E110" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
+      <c r="B111" t="s">
+        <v>378</v>
+      </c>
+      <c r="C111" t="s">
+        <v>366</v>
+      </c>
       <c r="D111" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E111" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
+      <c r="B112" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" t="s">
+        <v>446</v>
+      </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E112" t="s">
-        <v>496</v>
+        <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3735,49 +3813,46 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="E113" t="s">
-        <v>496</v>
+        <v>627</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
-        <v>366</v>
-      </c>
       <c r="D114" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E114" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>339</v>
-      </c>
       <c r="D115" t="s">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
+      <c r="B116" t="s">
+        <v>379</v>
+      </c>
       <c r="D116" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E116" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3785,16 +3860,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E117" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3802,10 +3874,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="E118" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3813,13 +3885,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>379</v>
+      </c>
+      <c r="C119" t="s">
+        <v>352</v>
       </c>
       <c r="D119" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E119" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3827,55 +3902,46 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="E120" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
+      <c r="B121" t="s">
+        <v>370</v>
+      </c>
       <c r="D121" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="E121" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" t="s">
-        <v>357</v>
-      </c>
-      <c r="C122" t="s">
-        <v>366</v>
-      </c>
       <c r="D122" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="E122" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" t="s">
-        <v>357</v>
-      </c>
-      <c r="C123" t="s">
-        <v>339</v>
-      </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="E123" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3883,10 +3949,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>367</v>
+        <v>370</v>
+      </c>
+      <c r="C124" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124" t="s">
+        <v>511</v>
       </c>
       <c r="E124" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3894,21 +3966,27 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>352</v>
+      </c>
+      <c r="D125" t="s">
+        <v>511</v>
       </c>
       <c r="E125" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="D126" t="s">
-        <v>500</v>
+      <c r="B126" t="s">
+        <v>380</v>
       </c>
       <c r="E126" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3916,16 +3994,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
-      </c>
-      <c r="C127" t="s">
-        <v>393</v>
-      </c>
-      <c r="D127" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="E127" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3933,38 +4005,38 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="E128" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>132</v>
       </c>
+      <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" t="s">
+        <v>400</v>
+      </c>
       <c r="D129" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="E129" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>133</v>
       </c>
-      <c r="B130" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" t="s">
-        <v>393</v>
-      </c>
       <c r="D130" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="E130" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3972,10 +4044,10 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3983,13 +4055,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>365</v>
+      </c>
+      <c r="C132" t="s">
+        <v>400</v>
       </c>
       <c r="D132" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E132" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3997,10 +4072,10 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E133" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4008,13 +4083,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E134" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4022,10 +4097,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="E135" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4033,21 +4108,24 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>381</v>
+      </c>
+      <c r="D136" t="s">
+        <v>463</v>
       </c>
       <c r="E136" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>140</v>
       </c>
-      <c r="B137" t="s">
-        <v>370</v>
+      <c r="D137" t="s">
+        <v>521</v>
       </c>
       <c r="E137" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4055,38 +4133,38 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>382</v>
+      </c>
+      <c r="C138" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" t="s">
+        <v>522</v>
       </c>
       <c r="E138" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>142</v>
       </c>
-      <c r="B139" t="s">
-        <v>372</v>
-      </c>
-      <c r="C139" t="s">
-        <v>352</v>
-      </c>
       <c r="D139" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="E139" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>143</v>
       </c>
-      <c r="B140" t="s">
-        <v>369</v>
+      <c r="D140" t="s">
+        <v>524</v>
       </c>
       <c r="E140" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4094,16 +4172,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="D141" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="E141" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4111,10 +4189,13 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>382</v>
+      </c>
+      <c r="D142" t="s">
+        <v>522</v>
       </c>
       <c r="E142" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4122,10 +4203,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>374</v>
+        <v>383</v>
+      </c>
+      <c r="C143" t="s">
+        <v>398</v>
+      </c>
+      <c r="D143" t="s">
+        <v>525</v>
       </c>
       <c r="E143" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4133,10 +4220,13 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>383</v>
+      </c>
+      <c r="D144" t="s">
+        <v>522</v>
       </c>
       <c r="E144" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4144,27 +4234,33 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D145" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E145" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>149</v>
       </c>
+      <c r="B146" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
       <c r="D146" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E146" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4172,10 +4268,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="E147" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4183,30 +4279,24 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>376</v>
-      </c>
-      <c r="C148" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="E148" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>152</v>
       </c>
-      <c r="B149" t="s">
-        <v>375</v>
-      </c>
       <c r="D149" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="E149" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4214,16 +4304,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
-      </c>
-      <c r="C150" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D150" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E150" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4231,58 +4318,49 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D151" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E151" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>155</v>
       </c>
-      <c r="B152" t="s">
-        <v>376</v>
-      </c>
-      <c r="C152" t="s">
-        <v>391</v>
-      </c>
       <c r="D152" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="E152" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>156</v>
       </c>
-      <c r="B153" t="s">
-        <v>377</v>
-      </c>
-      <c r="C153" t="s">
-        <v>353</v>
-      </c>
       <c r="D153" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="E153" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>157</v>
       </c>
+      <c r="B154" t="s">
+        <v>350</v>
+      </c>
       <c r="D154" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="E154" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4290,38 +4368,38 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D155" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="E155" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>159</v>
       </c>
+      <c r="B156" t="s">
+        <v>385</v>
+      </c>
       <c r="D156" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="E156" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="B157" t="s">
-        <v>376</v>
-      </c>
       <c r="D157" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="E157" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4329,13 +4407,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>378</v>
+        <v>386</v>
+      </c>
+      <c r="C158" t="s">
+        <v>422</v>
       </c>
       <c r="D158" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="E158" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4343,49 +4424,49 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="E159" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>163</v>
       </c>
+      <c r="B160" t="s">
+        <v>387</v>
+      </c>
+      <c r="C160" t="s">
+        <v>422</v>
+      </c>
       <c r="D160" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E160" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>164</v>
       </c>
-      <c r="B161" t="s">
-        <v>337</v>
-      </c>
       <c r="D161" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="E161" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>165</v>
       </c>
-      <c r="B162" t="s">
-        <v>378</v>
-      </c>
       <c r="D162" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="E162" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4393,13 +4474,13 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D163" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="E163" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4407,10 +4488,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="E164" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4418,27 +4499,33 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D165" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E165" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>169</v>
       </c>
+      <c r="B166" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166" t="s">
+        <v>422</v>
+      </c>
       <c r="D166" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="E166" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4446,16 +4533,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D167" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E167" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4463,21 +4550,27 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="E168" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>172</v>
       </c>
+      <c r="B169" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" t="s">
+        <v>422</v>
+      </c>
       <c r="D169" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E169" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4485,13 +4578,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D170" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E170" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4499,44 +4592,32 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="E171" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>175</v>
       </c>
-      <c r="B172" t="s">
-        <v>380</v>
-      </c>
-      <c r="C172" t="s">
-        <v>432</v>
-      </c>
       <c r="D172" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E172" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>176</v>
       </c>
-      <c r="B173" t="s">
-        <v>381</v>
-      </c>
-      <c r="C173" t="s">
-        <v>431</v>
-      </c>
       <c r="D173" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="E173" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4544,16 +4625,13 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>382</v>
-      </c>
-      <c r="C174" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="D174" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E174" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4561,10 +4639,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="E175" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4572,16 +4650,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="D176" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E176" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4589,24 +4667,33 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="C177" t="s">
+        <v>352</v>
       </c>
       <c r="D177" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="E177" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>181</v>
       </c>
+      <c r="B178" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" t="s">
+        <v>352</v>
+      </c>
       <c r="D178" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="E178" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4614,10 +4701,10 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E179" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4625,10 +4712,10 @@
         <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E180" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4636,24 +4723,27 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="D181" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="E181" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>185</v>
       </c>
+      <c r="B182" t="s">
+        <v>342</v>
+      </c>
       <c r="D182" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="E182" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4661,50 +4751,35 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>337</v>
-      </c>
-      <c r="C183" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="D183" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="E183" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>187</v>
       </c>
-      <c r="B184" t="s">
-        <v>364</v>
-      </c>
-      <c r="C184" t="s">
-        <v>339</v>
-      </c>
       <c r="D184" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="E184" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>188</v>
       </c>
-      <c r="B185" t="s">
-        <v>365</v>
-      </c>
-      <c r="C185" t="s">
-        <v>339</v>
-      </c>
       <c r="D185" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="E185" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4712,10 +4787,10 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="E186" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4723,10 +4798,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="E187" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4734,13 +4809,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>393</v>
+      </c>
+      <c r="C188" t="s">
+        <v>376</v>
       </c>
       <c r="D188" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="E188" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4748,38 +4826,44 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>366</v>
+      </c>
+      <c r="C189" t="s">
+        <v>376</v>
       </c>
       <c r="D189" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="E189" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>193</v>
       </c>
-      <c r="B190" t="s">
-        <v>385</v>
-      </c>
       <c r="D190" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>194</v>
       </c>
+      <c r="B191" t="s">
+        <v>394</v>
+      </c>
+      <c r="C191" t="s">
+        <v>365</v>
+      </c>
       <c r="D191" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="E191" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4787,10 +4871,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="E192" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4798,10 +4882,10 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="E193" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4809,10 +4893,10 @@
         <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="E194" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4820,16 +4904,13 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
-      </c>
-      <c r="C195" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="D195" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="E195" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4837,66 +4918,69 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>353</v>
-      </c>
-      <c r="C196" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="D196" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="E196" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>200</v>
       </c>
+      <c r="B197" t="s">
+        <v>394</v>
+      </c>
       <c r="D197" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="E197" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>201</v>
       </c>
-      <c r="B198" t="s">
-        <v>387</v>
-      </c>
-      <c r="C198" t="s">
-        <v>352</v>
-      </c>
       <c r="D198" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="E198" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>202</v>
       </c>
+      <c r="B199" t="s">
+        <v>395</v>
+      </c>
       <c r="D199" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="E199" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>203</v>
       </c>
+      <c r="B200" t="s">
+        <v>395</v>
+      </c>
+      <c r="C200" t="s">
+        <v>405</v>
+      </c>
       <c r="D200" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="E200" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4904,10 +4988,10 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="E201" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4915,13 +4999,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>387</v>
+        <v>352</v>
+      </c>
+      <c r="C202" t="s">
+        <v>405</v>
       </c>
       <c r="D202" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="E202" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4929,13 +5016,13 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="D203" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="E203" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4943,38 +5030,44 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>387</v>
+        <v>396</v>
+      </c>
+      <c r="C204" t="s">
+        <v>365</v>
       </c>
       <c r="D204" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="E204" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>208</v>
       </c>
+      <c r="B205" t="s">
+        <v>376</v>
+      </c>
+      <c r="C205" t="s">
+        <v>365</v>
+      </c>
       <c r="D205" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="E205" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>209</v>
       </c>
-      <c r="B206" t="s">
-        <v>388</v>
-      </c>
       <c r="D206" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="E206" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4982,16 +5075,13 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>388</v>
-      </c>
-      <c r="C207" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D207" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="E207" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4999,41 +5089,32 @@
         <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="E208" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>212</v>
       </c>
-      <c r="B209" t="s">
-        <v>339</v>
-      </c>
-      <c r="C209" t="s">
-        <v>398</v>
-      </c>
       <c r="D209" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="E209" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>213</v>
       </c>
-      <c r="B210" t="s">
-        <v>339</v>
-      </c>
       <c r="D210" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="E210" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5041,33 +5122,24 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>389</v>
-      </c>
-      <c r="C211" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="D211" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="E211" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>215</v>
       </c>
-      <c r="B212" t="s">
-        <v>363</v>
-      </c>
-      <c r="C212" t="s">
-        <v>352</v>
-      </c>
       <c r="D212" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="E212" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5075,10 +5147,10 @@
         <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="E213" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5086,24 +5158,30 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D214" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="E214" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>218</v>
       </c>
+      <c r="B215" t="s">
+        <v>400</v>
+      </c>
+      <c r="C215" t="s">
+        <v>376</v>
+      </c>
       <c r="D215" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="E215" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5111,35 +5189,38 @@
         <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="E216" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>220</v>
       </c>
+      <c r="B217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C217" t="s">
+        <v>400</v>
+      </c>
       <c r="D217" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="E217" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>221</v>
       </c>
-      <c r="B218" t="s">
-        <v>391</v>
-      </c>
       <c r="D218" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="E218" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5147,35 +5228,35 @@
         <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="E219" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>223</v>
       </c>
+      <c r="B220" t="s">
+        <v>351</v>
+      </c>
       <c r="D220" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E220" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>224</v>
       </c>
-      <c r="B221" t="s">
-        <v>392</v>
-      </c>
       <c r="D221" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="E221" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5183,16 +5264,13 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>393</v>
-      </c>
-      <c r="C222" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D222" t="s">
-        <v>447</v>
+        <v>575</v>
       </c>
       <c r="E222" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5200,10 +5278,10 @@
         <v>226</v>
       </c>
       <c r="D223" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="E223" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5211,52 +5289,55 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>363</v>
-      </c>
-      <c r="C224" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="D224" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="E224" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>228</v>
       </c>
+      <c r="B225" t="s">
+        <v>352</v>
+      </c>
       <c r="D225" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="E225" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>229</v>
       </c>
+      <c r="B226" t="s">
+        <v>401</v>
+      </c>
+      <c r="C226" t="s">
+        <v>383</v>
+      </c>
       <c r="D226" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="E226" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>230</v>
       </c>
-      <c r="B227" t="s">
-        <v>338</v>
-      </c>
       <c r="D227" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="E227" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5264,10 +5345,10 @@
         <v>231</v>
       </c>
       <c r="D228" t="s">
-        <v>560</v>
+        <v>402</v>
       </c>
       <c r="E228" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5275,13 +5356,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>339</v>
+        <v>378</v>
+      </c>
+      <c r="C229" t="s">
+        <v>383</v>
       </c>
       <c r="D229" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="E229" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5289,24 +5373,21 @@
         <v>233</v>
       </c>
       <c r="D230" t="s">
-        <v>561</v>
+        <v>403</v>
       </c>
       <c r="E230" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>234</v>
       </c>
-      <c r="B231" t="s">
-        <v>339</v>
-      </c>
       <c r="D231" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E231" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5314,13 +5395,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
-      </c>
-      <c r="D232" t="s">
-        <v>563</v>
+        <v>402</v>
       </c>
       <c r="E232" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5328,38 +5406,38 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C233" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D233" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="E233" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>237</v>
       </c>
-      <c r="D234" t="s">
-        <v>565</v>
+      <c r="B234" t="s">
+        <v>403</v>
       </c>
       <c r="E234" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>238</v>
       </c>
-      <c r="D235" t="s">
-        <v>395</v>
+      <c r="B235" t="s">
+        <v>402</v>
       </c>
       <c r="E235" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5367,16 +5445,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="C236" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D236" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="E236" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5384,49 +5462,46 @@
         <v>240</v>
       </c>
       <c r="D237" t="s">
-        <v>396</v>
+        <v>584</v>
       </c>
       <c r="E237" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>241</v>
       </c>
+      <c r="B238" t="s">
+        <v>404</v>
+      </c>
       <c r="D238" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="E238" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>242</v>
       </c>
-      <c r="B239" t="s">
-        <v>395</v>
+      <c r="D239" t="s">
+        <v>585</v>
       </c>
       <c r="E239" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>243</v>
       </c>
-      <c r="B240" t="s">
-        <v>394</v>
-      </c>
-      <c r="C240" t="s">
-        <v>376</v>
-      </c>
       <c r="D240" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="E240" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5434,10 +5509,13 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>396</v>
+        <v>366</v>
+      </c>
+      <c r="D241" t="s">
+        <v>583</v>
       </c>
       <c r="E241" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5445,52 +5523,55 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>395</v>
+        <v>366</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" t="s">
+        <v>583</v>
       </c>
       <c r="E242" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>246</v>
       </c>
-      <c r="B243" t="s">
-        <v>397</v>
-      </c>
-      <c r="C243" t="s">
-        <v>339</v>
-      </c>
       <c r="D243" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="E243" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>247</v>
       </c>
+      <c r="B244" t="s">
+        <v>405</v>
+      </c>
+      <c r="C244" t="s">
+        <v>448</v>
+      </c>
       <c r="D244" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="E244" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>248</v>
       </c>
-      <c r="B245" t="s">
-        <v>397</v>
-      </c>
       <c r="D245" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="E245" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5498,10 +5579,10 @@
         <v>249</v>
       </c>
       <c r="D246" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="E246" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5509,10 +5590,10 @@
         <v>250</v>
       </c>
       <c r="D247" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="E247" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5520,30 +5601,27 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>353</v>
+        <v>405</v>
+      </c>
+      <c r="C248" t="s">
+        <v>448</v>
       </c>
       <c r="D248" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="E248" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>252</v>
       </c>
-      <c r="B249" t="s">
-        <v>353</v>
-      </c>
-      <c r="C249" t="s">
-        <v>339</v>
-      </c>
       <c r="D249" t="s">
-        <v>567</v>
+        <v>407</v>
       </c>
       <c r="E249" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5551,27 +5629,21 @@
         <v>253</v>
       </c>
       <c r="D250" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="E250" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>254</v>
       </c>
-      <c r="B251" t="s">
-        <v>398</v>
-      </c>
-      <c r="C251" t="s">
-        <v>433</v>
-      </c>
       <c r="D251" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="E251" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5579,21 +5651,27 @@
         <v>255</v>
       </c>
       <c r="D252" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>256</v>
       </c>
+      <c r="B253" t="s">
+        <v>383</v>
+      </c>
+      <c r="C253" t="s">
+        <v>448</v>
+      </c>
       <c r="D253" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E253" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5601,10 +5679,10 @@
         <v>257</v>
       </c>
       <c r="D254" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="E254" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5612,16 +5690,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C255" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="D255" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="E255" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5629,21 +5707,24 @@
         <v>259</v>
       </c>
       <c r="D256" t="s">
-        <v>400</v>
+        <v>597</v>
       </c>
       <c r="E256" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>260</v>
       </c>
+      <c r="B257" t="s">
+        <v>406</v>
+      </c>
       <c r="D257" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E257" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5651,21 +5732,27 @@
         <v>261</v>
       </c>
       <c r="D258" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="E258" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>262</v>
       </c>
+      <c r="B259" t="s">
+        <v>405</v>
+      </c>
+      <c r="C259" t="s">
+        <v>450</v>
+      </c>
       <c r="D259" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E259" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5673,27 +5760,27 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>376</v>
-      </c>
-      <c r="C260" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="D260" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="E260" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>264</v>
       </c>
+      <c r="B261" t="s">
+        <v>378</v>
+      </c>
       <c r="D261" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="E261" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5701,27 +5788,21 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>398</v>
-      </c>
-      <c r="C262" t="s">
-        <v>434</v>
-      </c>
-      <c r="D262" t="s">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="E262" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>266</v>
       </c>
-      <c r="D263" t="s">
-        <v>581</v>
+      <c r="B263" t="s">
+        <v>408</v>
       </c>
       <c r="E263" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5729,24 +5810,27 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D264" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="E264" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>268</v>
       </c>
+      <c r="B265" t="s">
+        <v>376</v>
+      </c>
       <c r="D265" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="E265" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5756,14 +5840,11 @@
       <c r="B266" t="s">
         <v>398</v>
       </c>
-      <c r="C266" t="s">
-        <v>435</v>
-      </c>
       <c r="D266" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="E266" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5771,13 +5852,13 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="D267" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="E267" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5785,35 +5866,35 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="D268" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="E268" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="B269" t="s">
-        <v>400</v>
+      <c r="D269" t="s">
+        <v>601</v>
       </c>
       <c r="E269" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>273</v>
       </c>
-      <c r="B270" t="s">
-        <v>401</v>
+      <c r="D270" t="s">
+        <v>602</v>
       </c>
       <c r="E270" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5821,13 +5902,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D271" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="E271" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5835,13 +5916,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>363</v>
+        <v>412</v>
+      </c>
+      <c r="C272" t="s">
+        <v>451</v>
       </c>
       <c r="D272" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="E272" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5849,13 +5933,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>391</v>
+        <v>400</v>
+      </c>
+      <c r="C273" t="s">
+        <v>452</v>
       </c>
       <c r="D273" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="E273" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5863,13 +5950,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>403</v>
+        <v>412</v>
+      </c>
+      <c r="C274" t="s">
+        <v>452</v>
       </c>
       <c r="D274" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="E274" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5877,13 +5967,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D275" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="E275" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5891,10 +5981,10 @@
         <v>279</v>
       </c>
       <c r="D276" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E276" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5902,24 +5992,21 @@
         <v>280</v>
       </c>
       <c r="D277" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E277" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>281</v>
       </c>
-      <c r="B278" t="s">
-        <v>405</v>
-      </c>
       <c r="D278" t="s">
-        <v>436</v>
+        <v>607</v>
       </c>
       <c r="E278" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5927,16 +6014,13 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>405</v>
-      </c>
-      <c r="C279" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="D279" t="s">
-        <v>587</v>
+        <v>463</v>
       </c>
       <c r="E279" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5944,33 +6028,27 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="C280" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="D280" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="E280" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>284</v>
       </c>
-      <c r="B281" t="s">
-        <v>405</v>
-      </c>
-      <c r="C281" t="s">
-        <v>437</v>
-      </c>
       <c r="D281" t="s">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="E281" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5978,13 +6056,13 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="D282" t="s">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="E282" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5992,21 +6070,24 @@
         <v>286</v>
       </c>
       <c r="D283" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="E283" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>287</v>
       </c>
+      <c r="B284" t="s">
+        <v>414</v>
+      </c>
       <c r="D284" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="E284" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6014,24 +6095,21 @@
         <v>288</v>
       </c>
       <c r="D285" t="s">
-        <v>591</v>
+        <v>419</v>
       </c>
       <c r="E285" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>289</v>
       </c>
-      <c r="B286" t="s">
-        <v>364</v>
-      </c>
       <c r="D286" t="s">
-        <v>447</v>
+        <v>610</v>
       </c>
       <c r="E286" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6039,10 +6117,10 @@
         <v>290</v>
       </c>
       <c r="D287" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E287" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6050,13 +6128,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>407</v>
-      </c>
-      <c r="D288" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="E288" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6064,10 +6139,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E289" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6075,16 +6150,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>409</v>
-      </c>
-      <c r="C290" t="s">
-        <v>353</v>
-      </c>
-      <c r="D290" t="s">
-        <v>593</v>
+        <v>417</v>
       </c>
       <c r="E290" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6092,16 +6161,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>410</v>
-      </c>
-      <c r="C291" t="s">
-        <v>353</v>
-      </c>
-      <c r="D291" t="s">
-        <v>593</v>
+        <v>418</v>
       </c>
       <c r="E291" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6109,13 +6172,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>409</v>
-      </c>
-      <c r="D292" t="s">
-        <v>593</v>
+        <v>419</v>
       </c>
       <c r="E292" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6123,13 +6183,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>410</v>
+        <v>420</v>
+      </c>
+      <c r="C293" t="s">
+        <v>365</v>
       </c>
       <c r="D293" t="s">
-        <v>593</v>
+        <v>463</v>
       </c>
       <c r="E293" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6137,16 +6200,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>410</v>
-      </c>
-      <c r="C294" t="s">
-        <v>353</v>
-      </c>
-      <c r="D294" t="s">
-        <v>593</v>
+        <v>416</v>
       </c>
       <c r="E294" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6154,10 +6211,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>411</v>
+        <v>421</v>
+      </c>
+      <c r="C295" t="s">
+        <v>365</v>
+      </c>
+      <c r="D295" t="s">
+        <v>463</v>
       </c>
       <c r="E295" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6165,10 +6228,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E296" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6176,27 +6239,21 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
-      </c>
-      <c r="C297" t="s">
-        <v>353</v>
-      </c>
-      <c r="D297" t="s">
-        <v>593</v>
+        <v>419</v>
       </c>
       <c r="E297" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>301</v>
       </c>
-      <c r="B298" t="s">
-        <v>411</v>
+      <c r="D298" t="s">
+        <v>612</v>
       </c>
       <c r="E298" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6204,21 +6261,27 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>422</v>
+      </c>
+      <c r="C299" t="s">
+        <v>453</v>
+      </c>
+      <c r="D299" t="s">
+        <v>463</v>
       </c>
       <c r="E299" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>303</v>
       </c>
-      <c r="B300" t="s">
-        <v>412</v>
+      <c r="D300" t="s">
+        <v>613</v>
       </c>
       <c r="E300" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6226,13 +6289,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>414</v>
-      </c>
-      <c r="D301" t="s">
-        <v>593</v>
+        <v>423</v>
       </c>
       <c r="E301" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6240,27 +6300,27 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>409</v>
-      </c>
-      <c r="C302" t="s">
-        <v>409</v>
-      </c>
-      <c r="D302" t="s">
-        <v>594</v>
+        <v>423</v>
       </c>
       <c r="E302" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>306</v>
       </c>
+      <c r="B303" t="s">
+        <v>424</v>
+      </c>
+      <c r="C303" t="s">
+        <v>366</v>
+      </c>
       <c r="D303" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="E303" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6268,13 +6328,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>425</v>
+      </c>
+      <c r="C304" t="s">
+        <v>366</v>
       </c>
       <c r="D304" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E304" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6282,16 +6345,13 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>415</v>
-      </c>
-      <c r="C305" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D305" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E305" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6299,27 +6359,30 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>416</v>
-      </c>
-      <c r="C306" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D306" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E306" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>310</v>
       </c>
+      <c r="B307" t="s">
+        <v>425</v>
+      </c>
+      <c r="C307" t="s">
+        <v>366</v>
+      </c>
       <c r="D307" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="E307" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6327,38 +6390,38 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>415</v>
-      </c>
-      <c r="C308" t="s">
-        <v>409</v>
-      </c>
-      <c r="D308" t="s">
-        <v>594</v>
+        <v>426</v>
       </c>
       <c r="E308" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>312</v>
       </c>
-      <c r="D309" t="s">
-        <v>597</v>
+      <c r="B309" t="s">
+        <v>427</v>
       </c>
       <c r="E309" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>313</v>
       </c>
+      <c r="B310" t="s">
+        <v>425</v>
+      </c>
+      <c r="C310" t="s">
+        <v>366</v>
+      </c>
       <c r="D310" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="E310" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6366,71 +6429,74 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>339</v>
-      </c>
-      <c r="C311" t="s">
-        <v>353</v>
-      </c>
-      <c r="D311" t="s">
-        <v>599</v>
+        <v>426</v>
       </c>
       <c r="E311" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>315</v>
       </c>
-      <c r="D312" t="s">
-        <v>600</v>
+      <c r="B312" t="s">
+        <v>428</v>
       </c>
       <c r="E312" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>316</v>
       </c>
-      <c r="D313" t="s">
-        <v>601</v>
+      <c r="B313" t="s">
+        <v>427</v>
       </c>
       <c r="E313" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>317</v>
       </c>
+      <c r="B314" t="s">
+        <v>429</v>
+      </c>
       <c r="D314" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="E314" t="s">
-        <v>417</v>
+        <v>636</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>318</v>
       </c>
+      <c r="B315" t="s">
+        <v>424</v>
+      </c>
+      <c r="C315" t="s">
+        <v>424</v>
+      </c>
       <c r="D315" t="s">
-        <v>418</v>
+        <v>615</v>
       </c>
       <c r="E315" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>319</v>
       </c>
-      <c r="B316" t="s">
-        <v>417</v>
+      <c r="D316" t="s">
+        <v>616</v>
       </c>
       <c r="E316" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6438,10 +6504,13 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>418</v>
+        <v>430</v>
+      </c>
+      <c r="D317" t="s">
+        <v>615</v>
       </c>
       <c r="E317" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6449,10 +6518,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>418</v>
+        <v>430</v>
+      </c>
+      <c r="C318" t="s">
+        <v>424</v>
+      </c>
+      <c r="D318" t="s">
+        <v>615</v>
       </c>
       <c r="E318" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6460,21 +6535,27 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="C319" t="s">
+        <v>424</v>
+      </c>
+      <c r="D319" t="s">
+        <v>615</v>
       </c>
       <c r="E319" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>323</v>
       </c>
-      <c r="B320" t="s">
-        <v>420</v>
+      <c r="D320" t="s">
+        <v>617</v>
       </c>
       <c r="E320" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6482,21 +6563,27 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>421</v>
+        <v>430</v>
+      </c>
+      <c r="C321" t="s">
+        <v>424</v>
+      </c>
+      <c r="D321" t="s">
+        <v>615</v>
       </c>
       <c r="E321" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>325</v>
       </c>
-      <c r="B322" t="s">
-        <v>422</v>
+      <c r="D322" t="s">
+        <v>618</v>
       </c>
       <c r="E322" t="s">
-        <v>616</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6504,10 +6591,10 @@
         <v>326</v>
       </c>
       <c r="D323" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="E323" t="s">
-        <v>597</v>
+        <v>432</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6515,13 +6602,162 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>409</v>
+        <v>352</v>
+      </c>
+      <c r="C324" t="s">
+        <v>366</v>
       </c>
       <c r="D324" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>328</v>
+      </c>
+      <c r="D325" t="s">
+        <v>621</v>
+      </c>
+      <c r="E325" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>329</v>
+      </c>
+      <c r="D326" t="s">
+        <v>622</v>
+      </c>
+      <c r="E326" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>330</v>
+      </c>
+      <c r="D327" t="s">
+        <v>623</v>
+      </c>
+      <c r="E327" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>331</v>
+      </c>
+      <c r="D328" t="s">
+        <v>433</v>
+      </c>
+      <c r="E328" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>332</v>
+      </c>
+      <c r="B329" t="s">
+        <v>432</v>
+      </c>
+      <c r="E329" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>333</v>
+      </c>
+      <c r="B330" t="s">
+        <v>433</v>
+      </c>
+      <c r="E330" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>334</v>
+      </c>
+      <c r="B331" t="s">
+        <v>433</v>
+      </c>
+      <c r="E331" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>335</v>
+      </c>
+      <c r="B332" t="s">
+        <v>434</v>
+      </c>
+      <c r="E332" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>336</v>
+      </c>
+      <c r="B333" t="s">
+        <v>435</v>
+      </c>
+      <c r="E333" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>337</v>
+      </c>
+      <c r="B334" t="s">
+        <v>436</v>
+      </c>
+      <c r="E334" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>338</v>
+      </c>
+      <c r="B335" t="s">
+        <v>437</v>
+      </c>
+      <c r="E335" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>339</v>
+      </c>
+      <c r="D336" t="s">
+        <v>624</v>
+      </c>
+      <c r="E336" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>340</v>
+      </c>
+      <c r="B337" t="s">
+        <v>424</v>
+      </c>
+      <c r="D337" t="s">
+        <v>625</v>
+      </c>
+      <c r="E337" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
